--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_598.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_598.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d77580-Reviews-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>213</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Quality-Inn-Long-Beach-Airport.h20907.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_598.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_598.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1015">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Chris L</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>This place deserves a minus 10.   Room smelled of marijuana or cigarette smoke.  The bathroom was very outdated, we walked up to piles of garbage from a Pizza restaurant next door, to the right of our room was another pile of garbage I have pictures to prove.  A homeless man was taking a bath with a hose.  The hotel is overpriced and not worth it.  Definitely not worth what you pay.  Will never stay at another Quality Inn.  We were going to a wedding and asked to check in early, front desk said they didn't have the request.  Maybe that's why we got the worst room, the front desk Clerk a black man was not friendly at all!!More</t>
   </si>
   <si>
+    <t>Nick A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r580197030-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>DON"T STAY HERE, Equivalent to a Motel - Bug infested rooms, unprofessional staff, limited parking, torn up rooms, and old/outdated pool. Had to change rooms because of bugs. Got into the new room and immediately saw bugs on the wall shown in the picture. There were about 7-10 of those flying around in my "new updated room," which they charged me $10 for a room "upgrade." You're literally handed Free Drink Coupons from a bar as your tickets for their free breakfast. Never would I try their food and I am never going to another Quality Inn. Opposite of quality. The entire building and each room needs a complete renovation!More</t>
   </si>
   <si>
+    <t>Timothy I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r579939123-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>If this is the Quality Inn that is located at "Signal Hill" in CA, I suggest you pay cash and do not present your credit card.   Need I say more?   Our credit card was hacked, it was a big hassle once we returned from our cruise one week later, only to find out that there was almost $700 in charges to J Crew the day after we cruised out,  and the credit card number was sold(?) to other people in the US.  Other attempts were then made &amp; turned down.  Credit card company recognized immediately based on computer IP number that this was not our charges, they closed the credit card down.  Card company is investigating as they now have the IP number of buyer of merchandise from J Crew.More</t>
   </si>
   <si>
+    <t>Rick K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r561329133-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Christi P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r559088721-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>Let me just say a big thank you to carlos and the shuttle driver. They picked me up from the airport, so nice on the phone (you can tell he goes above and beyond for his job) and helped me out. The driver was talkative and engaging and helped me with my bags. Carlos was able to check me in early and it was just nice, made me feel like I was an old regular. I love good service like this. The room is really large and I couldn't beat the rate. It's a little dated, nothing fancy, but I enjoyed my stay. The pizza place right next door was aammmaazzinngggg. So I will definitely come back!More</t>
   </si>
   <si>
+    <t>cookie V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r556863853-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>The location is good. Accessible to many close attractions. However the pool, hot tub, the tools, bathrooms, carpets, bed sheets, pillows were all extremely dirty. Customer service was not great. Front desk staff was not friendly. Upon arriving the front lobby was closed. The employee must have been taking their break. Waited about 20 minuted then was let it tocheck in. The employee smelled of cigarettes and alcohol. Was given a parking "permit" basically a piece of paper that had some numbers but onthe other side it had a phone message that was not intended for us. Careless service. Breakfast is complementary and all pastries were old all three days. Waffle maker never had the mix available had to ask each and every day and wait for some time for it to be brought down. There is no attention to detail or cleaning. More</t>
   </si>
   <si>
+    <t>Anila K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r525924424-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>we were in our honeymoon and we stayed for 2 days in Qualitty in. The staff was so mean to us. They behave extremly bad not only with us but with all costumers, and one of them actually called the police.Not worthy at all.I would fire that boy from the job.More</t>
   </si>
   <si>
+    <t>Bobbie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r524406319-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>You would hope that all hotel rooms come with soap....guess again.  This one had no soap either in the shower or at the sink.  Bathmat?  Nope.  Lights went on and off when they wanted to.  Toilet ran all night. When we showed up there was about 10 pieces of toilet paper on the roll.....why not replace it with a fresh roll?  The room and bathroom were very outdated.  Recommended to others?  Nope.</t>
   </si>
   <si>
+    <t>patches p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r520902231-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>Nice Shuttle from Airport to Inn with Friendly Driver who Insures Comfort as Far as to put an Extra Lift step when Exiting Shuttle:) Front Guest with Knowlegable Staff with Recommendations of Great Food Near By:) Room itself a 50ft Walk on lower level a bit aged but Smelled And Looked Clean just worn with age dinged up in spots:)For a One Nighter to catch a Shuttle to Port not too bad:) Near by Eatery " The Big E Pizza Italian is Right in the Strip next to Inn has Great Selection of Terrific Items from Pizza to Pastas and Cold Brews:):) Fantastic Pizza and Lasagna!!...The Area is kinda industrial and not too many Scenic Sights near but due to not being accumated to the heat it was Just Wonderful to Chillax in Room with Fantastic Great Air-conditioning:):)...Would Say for the Price and Short Stay it will be just Fine:):)More</t>
   </si>
   <si>
+    <t>Melissa V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r498604375-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>bugnurse56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r494680024-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>FlemmingD51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r493802661-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t>Problems with door locks. Serious problem. I do not want to try 10 times to open the door, and I hate when the room next door has the same problem at midnight .Get it fixed.Room ok and clean. Small bath. Zink outside. Beds ok. Wifi ok.Breakfast ok. 2 friendly and helpful young people at front desk. Printed boardingcard, as there is no business computer for guests and it is supposed to be an airport hotel.</t>
   </si>
   <si>
+    <t>Saintsman68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r480053340-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>FrequentAZCruiser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r475396256-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
     <t>We have stayed at this property numerous times.  The hotel was updated a couple of years ago.   We find that the room is is okay for a one night stay.  They offer 4 and 10 day park n cruise packages. The hotel shuttle you to the Long Beach cruise ship port and picks you up.  There is no charge for the service.  (There is a small additional charge for transportation to San Pedro)  We feel our vehicle is secure and safe.  There are numerous surveillance camera on site.  The staff service is always great.  We know the staff and they always welcome us back.  The property has a Subway, Pizza Parlor, Donut shop in the parking lot.  Right across the street is a Del Taco and a Dollar Express.   We like the Dollar Express store for picking up last minute items we forgot.  The location is great!!   The room is large and has a microwave and small refrigerator.  I love the hot breakfast they provide.  They have danish, variety of breads, cereal, yogurt, juice, fruit, hot eggs, sausage and the waffle maker is the best.  They have an outdoor pool (not heated) and a spa.  Recently we have experience some ants in the bathroom.   I called the front desk and they come in and sprayed.   This is the only item that lowers my score of the property.More</t>
   </si>
   <si>
+    <t>bss20172017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r471150419-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>Rooms look okay, but any positive remarks stop there.  Desk clerks tend to be rude, unhelpful and treat young customers worse than dogs.  My daughter's collegiate team stayed at this hotel and I hosted a dinner for them.  Although we conferred with management about the dinner in advance, the desk clerk knew nothing about it, refused to help with the door while I was unloading (she was stationed 5 feet away and there were no other customers) and smugly told team members, paying customers, to eat on the street.  She would not let them finish their plates in the lobby.  There were few other customers checking in and those that did check in were complimentary and joked about having some of our food.  When it came time to clean up I asked the desk clerk if we could borrow a broom or mop.  You guessed it, she refused to allow it.  The team members, paying customers, had to get down on their hands and knees to wipe the floor with paper towels.  The lounge was left cleaner than found.  While the collegiate athletes were humble, respectful and gracious, the desk clerk remained smug, unhelpful and quite frankly nasty.  It was such an embarrassment as I take great pride in the hospitality of our city.  This desk clerk was unfit for the job and she had no supervision.  When we asked to speak to the manager, the clerk hid his or...Rooms look okay, but any positive remarks stop there.  Desk clerks tend to be rude, unhelpful and treat young customers worse than dogs.  My daughter's collegiate team stayed at this hotel and I hosted a dinner for them.  Although we conferred with management about the dinner in advance, the desk clerk knew nothing about it, refused to help with the door while I was unloading (she was stationed 5 feet away and there were no other customers) and smugly told team members, paying customers, to eat on the street.  She would not let them finish their plates in the lobby.  There were few other customers checking in and those that did check in were complimentary and joked about having some of our food.  When it came time to clean up I asked the desk clerk if we could borrow a broom or mop.  You guessed it, she refused to allow it.  The team members, paying customers, had to get down on their hands and knees to wipe the floor with paper towels.  The lounge was left cleaner than found.  While the collegiate athletes were humble, respectful and gracious, the desk clerk remained smug, unhelpful and quite frankly nasty.  It was such an embarrassment as I take great pride in the hospitality of our city.  This desk clerk was unfit for the job and she had no supervision.  When we asked to speak to the manager, the clerk hid his or her identity and it was hard to identify one responsible person over the phone or online.  If you are looking for a cheap hotel this may suit your needs, but expect to be treated rudely and disrespectfully.  If you need a place for your team to stay while training or competing in Long Beach, DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>Valentina V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r462513430-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>We spent on night at Quality Inn Long Beach, CA . The receptionists were kind and nice . The room was clean . The desk in the room was a little old and the Wifi was very slow . The wall papers on the wall  were torn behind the armchair . The breakfast was good . We could make the hot  waffles by ourselves . They provided the coffee, hot tea , sausages , omelette , bread , cereal, orange juice , milk . Our kids were not hungry after that kind of good breakfast . The hotel has  a pool and jacuzzi outside , we didn't go there , because it was evening and it was cold weather . Probably , we will stay there again.More</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r460506759-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t>We chose the hotel because it offered a park and cruise package with free shuttle to the cruise port. The hotel lobby and breakfast area are very nice and updated, new feeling. The parking lot is pretty small but we found places to park our cars and they were secure when we arrived back. The shuttle worked well and the driver was friendly, prompt and serious about getting that luggage on and off the shuttle--he was fast! The room we stayed in was the downfall. It wasn't the cleanest, but it wasn't anywhere near as bad as it could have been either. The bathroom floor tile looked moldy and dirty. When we got up in the morning and realized we were ant infested is when it wasn't fun! Lots and lots of ants. We had two rooms, two doors apart. Ants in both rooms.More</t>
   </si>
   <si>
+    <t>Willie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r456946628-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -516,6 +570,9 @@
     <t>The hotel is located on busy PCH and the noise never stops. People were fighting all night long and I turned up the tv to block out the noice. It has a comfortable bed and includes a good breakfast. Parking can be a challenge and the rooms need a upgrade. The staff is nice but you get what you pay for.</t>
   </si>
   <si>
+    <t>Idah0sun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r448616293-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -537,6 +594,9 @@
     <t>I can not believe I paid $130 to stay in filth. The room had an unpleasant smell. The floors were disgustingly dirty and the tile areas were sticky, I didn't want to take my shoes off. I really wish I had just slept in my car. We stayed on New Years Eve so all hotels in area were sold out or we would have gone else where. The place felt like it should be a by the hour rate if you know what I mean. I am writing this review as a warning, do not stay here, disrepair and run down are not strong enough words to describe this hotel, Quailty Inn needs to take there name off of this property. The lobby of the hotel is the only part that looked up dated, it was not a representation of the rest of the property. Long story short do not book!!!More</t>
   </si>
   <si>
+    <t>malibu6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r447366087-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -555,6 +615,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Danellen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r442186079-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -573,6 +636,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>BMRajpura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r424855943-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -594,6 +660,9 @@
     <t>Stayed here one night. Hotel does not have elevator. Property is very poorly kept. There was no coffee maker in room. They had left an iron in there but no ironing board. No bathtub. In breakfast area, microwave was not functioning! There were ants and water flies in room and front desk essentially said they did not have other room! Service is poor. They way internet worked (or did not work), reminded me of old MODEM days! Bed was uncomfortable. And yes you will like this, TV channel line up is totally useless, and quality of picture was completely pixelated. It has as many or more Chinese and other channels than US!More</t>
   </si>
   <si>
+    <t>BMS909</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r422686089-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -615,6 +684,9 @@
     <t>I booked this hotel before my trip and the only reason I booked it was because it was a park and fly. Well I was checking out and I talked to the gal at the front desk and asked her if I would still be ok catching the shuttle when I return because on their website it said the shuttle ran from 9-5 and my plane landed at 4:15. She said sorry sir but our shuttle stops at 4:30 and I said well thats not what your website says and she hands me this little piece of paper that says hours 9- 4:30 I responded and said you need to update your website then. And she responded call the day you are returning and maybe the front desk will be in a good mood and pick you up. So I called the day I was flying back and they said oh well today we are stopping our shuttle at 3:30 and good luck. I had to find a taxi and take my wife and 4 young kids and get back to our car. Never again will I stay here.More</t>
   </si>
   <si>
+    <t>David N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r404053206-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -630,6 +702,9 @@
     <t>The room was not bad for the price, people that worked there were always helpful, continental breakfast was about the same as any other. Pool areas could use a good clean up, in and out. Deadbolt lock on door didn't work, told the front desk 3 times and it was never fixed while we were there, they gave us a 10% discount when we checked out. There was another flip latch on the door jamb that prevented the door from being opened, they were all booked so we could not swap to another room.</t>
   </si>
   <si>
+    <t>Banshee19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r389054477-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -651,6 +726,9 @@
     <t>When we first walked in, the lobby didn't look bad, but then we got to our room. It had the smell of an old smoking room despite it supposedly being nonsmoking. The chair was filthy; no way would I sit on it. The security latch was broken off the door. Walls and curtains were dirty. Then I walked into the bathroom. There was a used washcloth hanging from the shower, and dried phlegm on the wall by the door casing. I was staying with a large group, and it was the Fourth of July weekend, otherwise I would have left. At bed time, I pulled back the sheets and found hair. Yep, hair in my supposedly clean sheets. I called the front desk and asked them to change my sheets. The desk clerk said that housekeeping was gone for the day, but they could move us to a new room. The new room was nearly as bad, but the sheets appeared hair-free. The whole thing was SERIOUSLY disgusting. More</t>
   </si>
   <si>
+    <t>Stacy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r388319034-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -666,6 +744,9 @@
     <t>We reserved three rooms for our stay and all 3 had different issues.  All were dirty, one room didn't have a lock on the door, one had to take two people to lock it.  Bathrooms were stained and not clean. Rooms smelled of stale cigarettes covered with air freshness. this place needs some TLC.</t>
   </si>
   <si>
+    <t>Avalonnotarypublic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r386251414-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -684,6 +765,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>jerrycAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r368573540-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -705,6 +789,9 @@
     <t>My family and I booked two rooms for one night at this hotel because it offered parking for our car while on a cruise, plus shuttle service to the San Pedro cruise port (small extra charge). While the internet made it seem perfect for our needs, the reality on arrival was a slightly different picture. Whatever the conveniences, they were outweighed by the run-down neighborhood, poor customer service, and rather shabby rooms. OK. Despite the loud loitering men smoking outside our room, and the busy street noise, I could handle it for one night. I admit I was quite concerned whether or not my car was going to be safe left there. I made a special point of parking my car directly in front of the office. Not that it would matter, given the night clerk's seeming preoccupation with his cell phone. Anyway, we survived and my car survived. Next time... someplace else.More</t>
   </si>
   <si>
+    <t>snbjacobs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r365424288-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -718,6 +805,9 @@
   </si>
   <si>
     <t>Some amenities lacking: no luggage cart on property, no light on one night stand, poor quality bath towels, no telephone book in room, no stationery or envelopes in room, hedges around parking make it difficult to unload luggage,clock radio inoperative, poor breakfast. Shuttle to L.A. cruise port was very prompt and efficient both ways. Next time we will look for another property that also allows free parking while on cruise.</t>
+  </si>
+  <si>
+    <t>vikitorisedona</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r362592036-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -742,6 +832,9 @@
 When we checked...My husband, bless his heart, booked this for us to stay for the night before we left for a cruise. I think there were at least 6 men staying in the room by the sound of the loud party including music late into the night and the amount of beer bottles stacked by their door the following the morning. To give him credit, the night clerk did follow up after I called the desk around 10:30 and asked our neighbors to pipe down and they complied. The property itself is down at heels and many unsafe conditions need to be addressed. We had two rooms with other family members staying in a room down the way from us. Neither our room nor theirs had lights plugged in and my husband tried to move the bed so he could plug ours in, but it was too heavy to move. The clock/radio was also unplugged. There was an extension cord to plug multiple appliances into so it just wasn't safe and didn't even work. Our family moved their coffee maker to other available outlets and couldn't get it to work anywhere.The one thing that was the most troubling though, was a refrigerator located in a breezeway outside with the door on it facing outward. I thought this was illegal in every state since a child could climb inside. My husband and I turned it door toward the wall. When we checked in we stood at the desk alone with the clerk looking down at whatever he was texting about for a couple of minutes before we could get him to look up. While checking in the fire alarm went off and he had to call the boss to find out what to do. He was told to just turn off the alarm. WAIT! WHAT????On the plus side, we had a comfortable bed and clean towels. The breakfast included good coffee, but the mess of waffle mix with sticky mess all over the place was not good. The breakfast room itself was clean except for the area where they had the waffle irons and you had to dodge around the people waiting for those things to go off in order to get to the other hot selections. That included sausage patties that were okay and egg pucks that were disgusting. Where do those things even come from? So, all in all not a great place to stay and we won't do it again. Husband is a sweetheart, but his ability to make good hotel choices for us has been compromised.More</t>
   </si>
   <si>
+    <t>Brad H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r349285348-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -766,6 +859,9 @@
     <t>Came in and thouht everything was fine...until we got to the room. AC only would cool room to about 75 then have to wait to 77 or 78 for it to come on again...meanwhile sweating to death. Then the tv has a sidebar that blocks a 1/3 of the screen. Called for both issues and 15 minutes the guy shows up...doesnt know how to fix tv or ac. Went to Office and the best they would do is call the guy again even tho told them he didnt know how to fix. Been waiting over 30 minutes and still noone. If could go elsewhere would leave in a hot minute.More</t>
   </si>
   <si>
+    <t>Laura A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r348015406-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -790,6 +886,9 @@
     <t>I booked this hotel (Park/Sleep) so that we could leave our car for a week while visiting another state. We had to wait about 45 minutes for the room to be ready, but sat by the very small pool as it was a very nice day.At check in, there was no mention of the shuttle service, but we asked and had no trouble getting a lift in the morning to the nearby Long Beach Airport. We had a delay with our return flight and when I called to get a shuttle to pick us up, I was told that the shuttle stops running at 4:00. The customer service at this hotel is not great. Not their fault that my plane was a little late, but not mine either. I probably will not stay here again.More</t>
   </si>
   <si>
+    <t>Richard V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r346739197-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -811,6 +910,9 @@
     <t>I was pleased with being in the city I wanted to be in.  I would stay again. Over all it was a pleasant stay.If the price was as reasonable as Orange County Quality Inns or Howard Johnsons in Orange County I would stay once a month on my regular trips.More</t>
   </si>
   <si>
+    <t>Burgess W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r342206974-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -835,6 +937,9 @@
     <t>The rooms were clean and comfortable. Plenty of room for two people in the room. It is located on Pacific Coast highway and most attractions are easily gotten too. My wife and I enjoy a few minutes in the spa after a day's drive however we found thePool and Spa area dirty (beer cans and sand. The gate to the pool area was locked and had to ask to get to into the pool. The front desk was not overly friendly and far from being helpful. The desk clerk seemed annoyed that we asked about local activities. We purchased the shuttle to and from our cruise out of Long Beach. The ride over was good however when we called to be picked up from the cruise (7:30AM) they informed us that the shuttle did not run until 9AM. Since the normal debarking from the cruises is 7AM (every cruise) it didn't make sense. We ended up taking a cab back to the hotel to pick up our car. The breakfast was probably to worst of any stay we have had at the Quality/Comfort Inn's. We came in about 6:30AM and there were a handful of people eating. A few of the selections were empty and there was no one in sight to restock them. We ate and left and they were still empty. My 3 rating is based on the clean and comfortable room. Nothing else was a pleasureMore</t>
   </si>
   <si>
+    <t>MarriedWidow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r338563223-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -859,6 +964,9 @@
     <t>For a 2 star it was a lot nicer than I expected. The room was very large, the bed comfortable, and it had an iron and iron board, hair dryer, refrigerator and coffee maker. The staff was very personable, and they serve a a decent compenentary breakfast that includes waffles,  eggs, breakfast meats, yogurt, fresh fruit, cereal, orange juice, coffee, tea, and reg. 2%, and skim milk.Yes, parking is not good. I was told after parking on the street--in a somewhat less than safe area-- that I could have parked in adjacent area. No one broke into my car but I kind of worried about it when loud guests made noises and woke me up as well the alarm clock I did not set going off at 2 a m. More</t>
   </si>
   <si>
+    <t>ksanders89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r333925953-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -884,6 +992,9 @@
   </si>
   <si>
     <t>They charged my card with a 50$ deposit but didn't tell me then charged me Again at check out they did refund if but not be for I got 2 insufficient funds fees on my account. And the shower never got hot More</t>
+  </si>
+  <si>
+    <t>TrailBlazers04</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r331902769-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -912,6 +1023,9 @@
 But will probably not the next time.  The bathroom and around the sink  had a smell of Raid. There were ants in bathroom and on the sink which we cleaned up. We did inform the front desk and got a whole $11 off our bill. The sink faucet would rattle when you turn on the hot water. There was someone else's hair in the tub yet, and we found what looked like underware left in the closet. We opted not to look too close to find out, and opted not to put our stuff in the closet. The parking area was very small and hard to get in and out of. We didn't want to leave for fear of losing the only spot we did find, and was going to walk to get dinner only to be informed by the front desk there really wasn't anything close except the pizza place next door. The area seemed very creepy, and we did not feel safe especially with some shady looking people we saw hanging around the parking lot, and in the walk way of the hotel. Plus we kept hearing a, lot of police sirens. We had concerns about how they work the parking for cruise patrons. We asked if there was a ticket or pass to put,on the dash to show we were...This was an ok place. We stayed here for the stay and sail package for our cruise. But will probably not the next time.  The bathroom and around the sink  had a smell of Raid. There were ants in bathroom and on the sink which we cleaned up. We did inform the front desk and got a whole $11 off our bill. The sink faucet would rattle when you turn on the hot water. There was someone else's hair in the tub yet, and we found what looked like underware left in the closet. We opted not to look too close to find out, and opted not to put our stuff in the closet. The parking area was very small and hard to get in and out of. We didn't want to leave for fear of losing the only spot we did find, and was going to walk to get dinner only to be informed by the front desk there really wasn't anything close except the pizza place next door. The area seemed very creepy, and we did not feel safe especially with some shady looking people we saw hanging around the parking lot, and in the walk way of the hotel. Plus we kept hearing a, lot of police sirens. We had concerns about how they work the parking for cruise patrons. We asked if there was a ticket or pass to put,on the dash to show we were to be there. We were told to park anywhere, that they have the liscence on file so scurity knows the car is to be there. Next morning we found lots of broken glass in the parking lot. Feeling uncomfortable, we decided last minute not to keep our car there and opted to park in the Carnival terminal. More</t>
   </si>
   <si>
+    <t>lizac153</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r331219371-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -933,6 +1047,9 @@
     <t>Loved the room very spacious, but parking sucked. you have to get checked in super early and then don't plan to leave anywhere because when you come back there will be no parking. The staff is very helpful. More</t>
   </si>
   <si>
+    <t>williamskw6872</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r330846641-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -951,6 +1068,9 @@
     <t>loved my room comfortable beds ,quiet,breakfast was nice ,pool spa, laundry room ,restaurants on property and near by shuttle if u wanna go to airport .staff was pleasant.beautifully landscaped property and beautiful decor inside rooms .More</t>
   </si>
   <si>
+    <t>shannon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r317751989-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -978,6 +1098,9 @@
     <t>Must be a glitch in communication, these ppl should tell how much the holding fee is, when their getting charged, an when they will be refunded. Otherwise the room was respectable. Housekeeping was awsome. And lots of places were walking distance. More</t>
   </si>
   <si>
+    <t>rrenfro12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r302717086-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1005,6 +1128,9 @@
     <t>I needed a place close to where a family member was in hospital and this was perfect. Clean, friendly and attentive service, affordable, and very close to the airport with a shuttle service. The 3pm check-in time is a bit late but all in all, this is a good deal. And they have a pool! It was almost 100 degrees when I was there so it was much appreciated, as was the A/C.More</t>
   </si>
   <si>
+    <t>Jenny S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r302536599-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1020,6 +1146,9 @@
     <t>We found this place to be a disappointment.   We booked a non smoking room, but it had obviously been smoked in.  The window was wide open,  probably an effort to air it out.  Overnight,  somehow the fan stopped working and our room became stifling.   None of us slept well.  Told the staff, they were going to send someone to our room in the morning (which didn't help our situation overnight).  No one ever came!!  When I checked out,  the staff didn't seem to know that we had a problem.   They offered us a 10% discount.   Later I did find out that our son unplugged the air unit because he was cold.  We had a good laugh about how we struggled to sleep.   However, still not impressed with the lack of attention to our needs at the time. Likely won't return here.More</t>
   </si>
   <si>
+    <t>Cappygirl12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r282359655-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1047,6 +1176,9 @@
     <t>We booked this hotel due to the "Cruise &amp; Sail" package. Although the shuttle service to and from the cruise port was GREAT, I cannot recommend this hotel primarily due to the location. Many liquor stores with people hanging out outside all night. Squad cards everywhere. Definitely did not feel safe. There were homeless people in the hotel parking lot sleeping on the old furniture that is presumably going to be discarded. Front desk staff was VERY polite and helpful. Breakfast was adequate. Would not recommend staying here, even for the cruise deal.More</t>
   </si>
   <si>
+    <t>Houstonmom1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r279155168-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1074,6 +1206,9 @@
     <t>My sister chose this hotel because she is a Choice Hotel member and this property was not too far from USC.  The location was ok, not too far from the freeway, about 20-30 minute freeway drive from USC and about a 10 minute drive to the beach.  There were no restaurants or shopping nearby which was disappointing.  The room was nicer than I expected after seeing the outside walkways and the outside of the hotel.  It was updated although there was work to be done.  There were several extension cords in our room and it just didn't feel finished. Also the room was very small compared to other Choice Hotel rooms.  We only had 3 people and we felt cramped.  I did like that the room came with a microwave, coffee pot, free wifi, and a refrigerator. The room was serviced daily and we had the right number of towels (which we don't normally have for unknown reasons).  There was a continental breakfast daily with waffles, eggs, sausage, yogurt, bagels, cereal, pastries, fruit, coffee and juice.  We stayed several days and on several occasions the food ran out and took several minutes to get replenished.  Breakfast was always very busy.  The property sold out a few of the nights during our stay and we couldn't find a parking space in the evenings.  We actually had to park about a block away from the property, hence being within walking distance to...My sister chose this hotel because she is a Choice Hotel member and this property was not too far from USC.  The location was ok, not too far from the freeway, about 20-30 minute freeway drive from USC and about a 10 minute drive to the beach.  There were no restaurants or shopping nearby which was disappointing.  The room was nicer than I expected after seeing the outside walkways and the outside of the hotel.  It was updated although there was work to be done.  There were several extension cords in our room and it just didn't feel finished. Also the room was very small compared to other Choice Hotel rooms.  We only had 3 people and we felt cramped.  I did like that the room came with a microwave, coffee pot, free wifi, and a refrigerator. The room was serviced daily and we had the right number of towels (which we don't normally have for unknown reasons).  There was a continental breakfast daily with waffles, eggs, sausage, yogurt, bagels, cereal, pastries, fruit, coffee and juice.  We stayed several days and on several occasions the food ran out and took several minutes to get replenished.  Breakfast was always very busy.  The property sold out a few of the nights during our stay and we couldn't find a parking space in the evenings.  We actually had to park about a block away from the property, hence being within walking distance to a few restaurants would have been nice.  There is a local pizza restaurant next door but there is only so much pizza you can eat on vacation.  We tried it once and it was ok.  On the downside - The hotel was a little disappointing.  There was construction debris everywhere and we could hear drills and hammers all throughout the time we were there.  There was so much debris that it made it very creepy to walk past to get to the breakfast area.  The parking lot was very dark at night and not well lit adding to the unsafe feeling that you got when walking outside your room after dark.  Also, there is a lot of very noisy traffic directly adjacent to the hotel at all hours during the night.  I was woken up several times by revving engines and what sounded like motorcycles.  The pool was smaller than most Choice Hotel pools and did not look very inviting which was disappointing to my kids.  I guess this was because of the construction.  Lastly I was happy to see Disneyland signs in the lobby advertising that I could buy Disneyland tickets in the lobby.  When I inquired about the tickets I was told that they were sold out and had been for over a year!  Not sure why the signs were still up.  Overall, this Quality Inn was adequate.  It served its purpose which was to provide us a place to sleep while vacationing in Southern California.More</t>
   </si>
   <si>
+    <t>ArizonaSun A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r277689550-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1092,6 +1227,9 @@
     <t>Stayed as part of the park and cruise package. Very nice rooms. Remodeled. Friendly staff from shuttle service, housekeeping, front desk, and handy men working on remaining rooms to be remodeled. Parking is a bit small but staff will try and accommodate you. Continental breakfast is good! They have a waffle maker so if you don't want to wait long for it; go in early ;) Only suggestion is: throw out/remove old furniture from parking lot as it makes the hotel look not as clean.Would definitely stay again.More</t>
   </si>
   <si>
+    <t>Leslie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r275079850-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1110,6 +1248,9 @@
     <t>I am a woman traveling out of state with my fellow gal pal and her small child. On our first night out of our four night stay around 3 am a man was trying to get into our room (we could tell by looking out the window). He left and came back a few minutes later with a room key...and entered our room! My friend and I were horrified that a strange man was able to come into our room in the early hours of the morning with a small child sleeping and 2 unarmed scared women. He immediately left. We went down to the lobby a few hours later and told the front desk what happened. They originally wanted to give us 20% off that night...but instead gave us only one free night. And insisted we should have put the lock latch on so no one could get in the room. The lack of safety totally seemed unimportant to the manager and owner. Someone at the front desk obviously gave a stranger a room key to our room. Despite our complaints they didn't seem it was necessary to comp our entire trip... Just to move our room, which we suggested. They gave us another room next to ours. When going back to our room to gather our belongings we noticed that the new room that they had just issued still had a family with an infant... still staying in...I am a woman traveling out of state with my fellow gal pal and her small child. On our first night out of our four night stay around 3 am a man was trying to get into our room (we could tell by looking out the window). He left and came back a few minutes later with a room key...and entered our room! My friend and I were horrified that a strange man was able to come into our room in the early hours of the morning with a small child sleeping and 2 unarmed scared women. He immediately left. We went down to the lobby a few hours later and told the front desk what happened. They originally wanted to give us 20% off that night...but instead gave us only one free night. And insisted we should have put the lock latch on so no one could get in the room. The lack of safety totally seemed unimportant to the manager and owner. Someone at the front desk obviously gave a stranger a room key to our room. Despite our complaints they didn't seem it was necessary to comp our entire trip... Just to move our room, which we suggested. They gave us another room next to ours. When going back to our room to gather our belongings we noticed that the new room that they had just issued still had a family with an infant... still staying in that room! The front desk yet again issued strangers a room key...this time while it was still occupied. The lack of organization, safety, and willingness to compensate for their errors is really insulting. We would NOT recommend this hotel to ANYONE.More</t>
   </si>
   <si>
+    <t>harposCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r274041527-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1128,6 +1269,9 @@
     <t>stayed overnight on a business trip, wanted to get a good price , quiet sleep and stay near seal beach [prices much higher there] its about 5 minutes north of quaint little SB, where i was able to visit a great tatsing room for Beachwood Brewing - awesome local small craft brewers. anyway, sligtly schetchy area, but , not terrible, just urban.  room was clean, qiuet, hot tub worked pool was clean. staff was great - brekie was above average . for 75 bux its a good deal. lots of reatcraunts nearby, and shops etc.More</t>
   </si>
   <si>
+    <t>Peter L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r273105359-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1147,6 +1291,9 @@
   </si>
   <si>
     <t>We booked this location by phone as we needed confirmation of parking for 16 days. The front desk personnel was great to deal with, answered all of our questions and made some good suggestions. He immediately emailed our confirmation to us. When we arrived on Dec 5/14, many units were under renovation and not available. Booked rooms were no problem. The parking lot was full of construction trucks. Supplies were stacked in parking spaces. All contributing to a parking shortage. We were told the hotel owned the property on which the mini-mall sat. We parked at the end of the mini-mall with no problem. The car was safe when we returned. The breakfast was exactly as we had expected but a bit crowded. I guess a lot of people use this facilities stay and cruise package. Good dining near by and even more just a short drive away. We would definitely stay at this motel again. The number of renovated rooms is increasing.More</t>
+  </si>
+  <si>
+    <t>Toby N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r268390149-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -1179,6 +1326,9 @@
 I thought to myself, "Is this in my head?" At first I thought these men were construction workers, but after some observation I realized that they might actually just be creeps hanging out on the motel grounds......I was set to stay at this hotel on company business travel. At the time, I did not know it was a motel, with outdoor facing rooms, as management conveniently did not advertise that. However, I looked around and saw that the premises looked recently renovated, and despite it being right on a main road I thought, "Well, I only need to survive one night here."I checked in with a nice young man at the front desk. He looked all of 18, which was strange, but he was very polite and professional. He handed me a room key and told me I was on the first floor. I asked if that could be switched just out of safety concerns, but he said they were sold out. Oh well, it wouldn't have made a huge difference anyway.I began walking to my room and stopped in my tracks as I heard the sound of snapping fingers. I turned around and saw a man behind a truck in the parking lot pointing at me. As I looked around, I saw that he was joined by about four or five other men, each scoping me out from behind a few trucks in the parking lot.I thought to myself, "Is this in my head?" At first I thought these men were construction workers, but after some observation I realized that they might actually just be creeps hanging out on the motel grounds... waiting for... well... a young woman to walk into her room alone without noticing she is being watched.They were still staring, whispering here and there, and very pointedly trying to see which room I entered. I decided to confront them. "Can I help you?" I said. They ignored me, but continued to stalk, stare, and inch slowly toward me.Finally, after having been frozen in one place for what felt like a lifetime, but was probably under a minute, I decided that there was absolutely no way I could subject myself to this kind of danger. It didn't matter that the hotel was already paid for by my company, I had to get out, and fast.I rushed back to the front desk and told the boy that I couldn't stay because it was not safe here. I told him to cancel my room immediately (I've still yet to confirm if the charge was canceled and refunded to my company). He did so without question and said that he understood. I then said that I'd need to stay inside to find a new hotel because it was not safe for me to leave without a specific destination. I scrambled to find another room, and quickly booked the Holiday Inn near Long Beach Airport, which luckily was safe. Upon checking in there I ran into a man I recognized from my office, and formally introduced myself. I briefly told him that I'd just switched over from the Quality Inn due to security concerns. He responded with great upset, saying that he was originally from Long Beach and knew the Quality Inn Motel, and that he was appalled that our company hasn't yet banned business travelers from booking it due to its lack of safety and security.I will be meeting with my security team within the week to report this situation, but I feel it's important that everyone on TripAdvisor understand what they are risking in trying to save a few bucks on this motel.Seriously, you're life is worth more than 89 dollars.More</t>
   </si>
   <si>
+    <t>Bill S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r264961358-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1197,6 +1347,9 @@
     <t>Like other reviewers I would stay away until they get their reno's done. Walking past old dirty carpets, furniture and other broken and disgusting pieces from the old rooms does not make for a great first impression. On the brighter side the newly reno'ed room we got into was quite nice. It was very clean and the bed was very comfortable. Can't stay much about the location as we were just driving through. Crapy but typical breakfast.More</t>
   </si>
   <si>
+    <t>aksharp1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r259560280-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1224,6 +1377,9 @@
     <t>Stayed at this hotel prior to a cruise for 2 nights. Place is old but they are currently renovating. Pros: Renovated rooms are very nice. They are doing a great job with that.          Free shuttle to cruise port.         Front desk staff was great         Good eating places right next to it         Wifi worked wellCons: Location. Not in a good area. Almost didn't want to leave my car there all week. However, it was safe and sound when I returned.           Parking spots are very tight. Felt like I was cramming my car into a spot and praying I    could open my door to get out. Haven't checked for new dings yet in my car from other people trying to get in and out of their cars next to me.            Had to change our rooms because they gave us a room that was already occupied           No elevators. If you have mobility issues, ask for lower level room.           NO water at 6pm when I wanted to shower. Had to plug in the phone in room to call front desk about it. It came on right away so not a biggie, but still.           Woman in parking lot with no pants on screaming at kids (no joke, although I'm still giggling about that)Despite the nice, renovated rooms, I don't think I would stay here again. But to be honest, I don't think I will ever stay in Long Beach again.More</t>
   </si>
   <si>
+    <t>Roseyflower</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r243487097-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1248,6 +1404,9 @@
     <t>First off the hotel is convenient for a carnival cruise.  We booked the park and cruise package for Dec 3.  We arrived late and was quickly checked into our room.  The room was dated but sufficient.  There was an ant on the night stand.  Because we arrived late we just went to bed.  The following morning my friend had an ant in her bed and her shower never warmed up.  When I first started showering it was also ice cold but after a few minutes it warmed up and was actually hot.  We got there at 9:15 and the breakfast was suppose to go until 9:30.  There was little food left and they were cleaning up already.  Our check out time was our shuttle time to the cruise.  We chose 11.  The shuttle was nice and the driver very helpful.  When the cruise was over we had a 7 hour drive ahead of us so we were hoping for a quick departure.   We called the hotel as soon as we were through customs and they said it would be about 30 minute which was fine.  We went over where we were told we would be picked up and waited.  30 minutes passed.  We waited a few more minutes and called the hotel to clarify when they would be there.  They were surprised they weren't there yet and put me on hold to call the driver.  When she came back she...First off the hotel is convenient for a carnival cruise.  We booked the park and cruise package for Dec 3.  We arrived late and was quickly checked into our room.  The room was dated but sufficient.  There was an ant on the night stand.  Because we arrived late we just went to bed.  The following morning my friend had an ant in her bed and her shower never warmed up.  When I first started showering it was also ice cold but after a few minutes it warmed up and was actually hot.  We got there at 9:15 and the breakfast was suppose to go until 9:30.  There was little food left and they were cleaning up already.  Our check out time was our shuttle time to the cruise.  We chose 11.  The shuttle was nice and the driver very helpful.  When the cruise was over we had a 7 hour drive ahead of us so we were hoping for a quick departure.   We called the hotel as soon as we were through customs and they said it would be about 30 minute which was fine.  We went over where we were told we would be picked up and waited.  30 minutes passed.  We waited a few more minutes and called the hotel to clarify when they would be there.  They were surprised they weren't there yet and put me on hold to call the driver.  When she came back she said he told her he was on the corner.  We walked around every place he could be but he wasn't there.  I called the hotel again and she said there was miss communication and he was still at the hotel and it would be faster for us to catch a cab and the hotel would pay.  She was very helpful and offered to call us a cab.  We walked over to the cab place and took a cab back to the hotel.  We tipped the driver and the hotel paid the cost of the cab.  They then gave us some money back for our inconvenience which was unexpected and nice.  Would I stay there again?  Probably because of their customer service and price.  I might look elsewhere also because of the inconveniences we experienced.More</t>
   </si>
   <si>
+    <t>Louis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r243227163-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1275,6 +1434,9 @@
     <t>Adequate accommodations in the Long Beach area. Okay for a business overnight stay and then to business. Not an impressive breakfast offering - all continental. Went to Denny's instead. Front desk staff seemed a bit laid back and not too engaging (could use a bit more "zip" to their greeting). There was nothing to make this an extraordinary stat,More</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r240652515-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1302,6 +1464,9 @@
     <t>I needed a room for one night before I left for a cruise.  This hotel provided me with the room and free parking for my car for the duration of the cruise and for a very good rate.  Unfortunately, the room was not very clean.  The carpet was stained in so many areas that I refused to walk around without my shoes.  There were ants everywhere and the furniture was worn and outdated.  The parking and free breakfast were the only plus.More</t>
   </si>
   <si>
+    <t>LSJUMBOF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r235784432-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1318,6 +1483,9 @@
   </si>
   <si>
     <t>I attended a business conference in Long Beach, and wanted economical accommodations.  I was delighted with this Quality Inn!  This place is a great value!!  It's in really good shape, having been refurbished fairly recently.  It's a classic 70s(?) motel on the Pacific Coast Hwy that has been updated and well-cared for.  The staff was very friendly.  The bed was comfortable and the room was completely clean!  The continental breakfast was one of the better ones I've seen anywhere, as it included hot oatmeal, hot waffles, and hard-boiled eggs.  I wish they had bananas, but there were apples and oranges available.  There is a pool, but I didn't use it.I was especially appreciative that, after I left my sunglasses in my room at check-out, I was able to get them back when I returned to the hotel after my business meeting had concluded that afternoon.More</t>
+  </si>
+  <si>
+    <t>Donnamar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r233956996-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -1346,6 +1514,9 @@
 The rooms had coffee makers, fridges and all the amenities you would expect from a nice...We were going on a cruise out of Long Beach terminal and I had read some good reviews on TripAdvisor.  I booked two rooms for our family and we drove in from Arizona in two cars.  We booked the park and stay rate with free shuttle to and from the cruise ship and free continental breakfast .  The staff was most accommodating and Alfonso was one of the most pleasant and helpful front desk managers we have encountered.  We arrived slightly early and had a short wait in the lobby but it was comfortable with soft couches and beautiful.  We were given an hour late checkout for no additional cost so we would not arrive too early for our cruise.Right next door is a coffee and donut shop, a subway and a pizza place.  We took a 10 minute walk to find 3 big name drugstores although there is a Dollar Store across the street.  All of us enjoyed the pool and Jacuzzi although they looked a  little old and tired.  They definitely could use some TLC and makeovers but that did not stop us from having a blast.  The breakfast was  quite extensive for what we expected.  Being gluten free I was happy they had hard boiled eggs.  The rest of the group enjoyed waffles, bagels, cereal, toast, juices and hot beverages.  The rooms had coffee makers, fridges and all the amenities you would expect from a nice hotel.  The beds were super comfortable.  The outside pathways could use a good power wash but the rooms were super clean as was the entry area and the dining area.   I would highly recommend this hotel if you stay in Long Beach.  I will be booking multiple rooms again in 15 months for our next cruise.More</t>
   </si>
   <si>
+    <t>JWIreland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r223439895-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1373,6 +1544,9 @@
     <t>Pretty basic economy hotel. i thought it more of 1 star than a two star rating. Room was very dated  and one of the chairs had a broken leg. When I checked out I told the clerk about the chair, but he seemed unconcerned about it. Would not stay here again.More</t>
   </si>
   <si>
+    <t>Chandra A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r215811464-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1400,6 +1574,9 @@
     <t>I booked this location because it was inexpensive and close to airport.  We only used room for 5 hours and it was a terrible experience.  Very scary part of town,  but rooms looked ok at first glance.  When we went to use restroom there were 6-7 small roaches that we had to kill before we could even occupy the bathroom/shower. When we went to sleep for a couple hours before catching our flight had to kill a few more roaches in the wall.  Beds were comfortable if we weren't so worried something would crawl on us.  I mentioned it when I checked out and they said they would take care of it.  Would not stay there again if we made it back to Long Beach.  More</t>
   </si>
   <si>
+    <t>BeckyAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r207199583-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1418,6 +1595,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>MillcreekUT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r200641551-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1437,6 +1617,9 @@
   </si>
   <si>
     <t>The park and cruise deal offered by this Quality Inn is a decent value, but please know that this motel is old and in some sort of a process of being upgraded.  Some of the rooms have been/are being updated, but the others are a mish-mash of 1960s to current convenience.More</t>
+  </si>
+  <si>
+    <t>Lauracello</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r198099569-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -1492,6 +1675,9 @@
     <t>This is our fourth stay at this property.  We cruise a lot and this is the best place we have found to ‘park and cruise’.  The hotel shuttles you to/from the ship.  We park our car on the property and we feel our vehicle is safe.  We have never had a glitch with any services!!  This property has a Laundromat on site.  This was great.   We also enjoyed the on-site spa.  We had a four day cruise.   We shuttle back to the hotel from our cruise and stay the night.  I was able to wash some clothes.  The next morning we shuttled back to the cruise terminal and hopped on a 7 day cruise.   The rooms are older but the property is clean and safe.  There is a Subway, Pizza establishment and mini-store in the same parking lot of the hotel.   Across the street (very short walk) is a dollar store and Del Taco.  I have recommended this hotel to other friends and family. I have received positive feedback when they return from their cruise.  The front desk staff is excellent and wonderful.   YES…we will stay there again.  I have already booked a room for our upcoming April cruise.More</t>
   </si>
   <si>
+    <t>Rocky987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r195835076-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1514,6 +1700,9 @@
   </si>
   <si>
     <t>Stayed for one night before our cruise. Hotel room was very dated in terms of condition and furniture. Every time someone turned on the sink you could hear a VERY loud squeaking noise. Very distracting if you are a light sleeper. The flatscreen tv and cable were the only up to date items. The coffeemaker was broken and not heating water properly. The floors felt soggy and definitely needed a cleaning. Breakfast was just ok. After the cruise, the front desk took down my cell phone # incorrectly. I would suggest waiting right inside the parking lot so you can't miss it. Other than that the shuttle van was adequate and our car was secure. In terms of location, there are no shops within walking distance but the area seemed relatively safe. If you do your research you can find park and cruise deals for very similar prices at better establishments with full breakfasts. Still a good value, but I would probably not stay again.More</t>
+  </si>
+  <si>
+    <t>Truthbetoldreviewer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r189819540-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -1549,6 +1738,9 @@
 He kept fussing about letting us talk to the manager--what is it to him?? I finally pressured him and said that its our right to at least talk to the manager and then he finally told us he would be there in the next...Do Not Stay Here!!! My husband is a choice certified manager so he knows the ins and outs of running a choice hotel very well. They are violating choice policies and they treat fellow choice employees like trash. First of all when we arrived the guy who checked us in had a major attitude problem. When we asked to speak to the manager because we wanted to talk to him about parking the car there for a few days while we went on a cruise since they were near the port he basically said no we couldn't talk to the manager.He said they have some package deal that includes parking and the room rate and we could upgrade to the package deal and that is all the manager was going to tell us. The whole reason we picked this hotel was because we saw that it was located close the port. If we had an employee rate then there should have been some accommodation for parking and we were happy to pay for it! We just didn't want to buy their $100 package when we were booking a room for $35--which is more than reasonable.He kept fussing about letting us talk to the manager--what is it to him?? I finally pressured him and said that its our right to at least talk to the manager and then he finally told us he would be there in the next morning.We unhappily proceeded to our room, already feeling that we made a mistake in choosing this place. The room was dark an dingy and had those stupid automatic lights that are controlled by a timer. Yeah that is great for a commercial building in public restrooms and the like, but not for a hotel! After using the bathroom for just 5 mins the light would switch off and of course the switch was outside so you either had to take care of business fast, handle your business in the dark, or have a flashlight--which I don't think most people plan to pack if they're going on a cruise and not CAMPING!The tub in the bathroom was raised super high in comparison to the water spout. It was clear the room hadn't been renovated in years. And then of course he gave us a room right on the walkway so any passers by could easily peak in if the curtains were open. Of course we wanted the curtains open to bring in some light, but I caught at least 2 housekeepers just starring at us through the window!!! RIDICULOUS--they clearly have not trained manners into their staff!!Along the line of manners, when we went for breakfast at 9:00am the next morning (which is SUPPOSED to be served until 9:30), the breakfast lady came and started taking the breakfast away at 9:20!! Not only did she just take the things away, but she started packing it back up into the appropriate plastics etc with HER BARR HANDS!! NO GLOVES!!! I wonder if they even have a food handlers license...???When I saw her packing it up my husband and I start making mad dashes to grab things we wanted. When I asked him if he wanted some juice he said yes and I was getting the waffle out from the iron and when I turned around to get the juice she turned off the juice machine after she heard my husband say yes!! He told me later that as soon as he said yes she ran to the machine and shut it off on purpose!! It was such a ridiculous breakfast--like we were being kicked out, and by 9:25 all the breakfast was gone. So much for time management!The next desk clerk we talked to was even more of a pleasure than the one from the previous night. When we asked him if we could speak with the manager he started giving us a hard time. He also started quoting us the cruise package price and was not even willing to talk to his manager. After we pushed and pushed he finally went and talked to his manager and then be came outside and started showing us a calculator like we were too dumb to do the simple math. He started calculating the difference between the employee rate we paid and the cruise package price and then comparing that too how much we would pay if we parked at the port, claiming that it was still a $20 savings.We still asked to speak with the manager, whose office, by the way, was literally right next to the front desk. The desk clerk still didnt want to let us talk to him, after pushing some more he finally went back into the managers office and when he came out he said "He is on a phone call."The door was wide open and I had just heard that "manager" hang up the phone a few mins prior!!! So he blatantly lied to our face!! I couldn't believe it. Then I said to him, "No, he is not on the phone. I just heard him hang up the phone a few minutes ago." The he started to get nervous because I totally called him out on his lie!! He start fidgeting and said he could have the manager call us. My husband and I stared him down and said, "So your manager who is sitting in that office right there does is not even willing to come outside to talk to us?" He again tried to claim that he was on the phone and we finally walked out.It was so ridiculous!! Choice has standards and it is supposed to be a family of employees who work together to help each other out. This manager was a total JERK who has trained his employees to be JUNIOR JERKS!!!DO NOT, DO NOT, DO NOT EVER STAY HERE!!!More</t>
   </si>
   <si>
+    <t>mebejim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r187647035-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1571,6 +1763,9 @@
   </si>
   <si>
     <t>We used the park and fly with the free shuttle.  The transfer was painless and efficient.  The driver was safe and courteous. This is a good option if you need a place to leave your car.  We were impressed when they told us to leave our car right out front where they could keep an eye on it.The check in was smooth and they were able to get us into our room at noon.  The room was larger than standard.  Everything worked and was clean.  The bed was comfortable.  We love backing up to our door so the fact that is a Motel is a plus for us. On the down side, the lobby had an overpowering chemical smell that was off putting. The breakfast was uninspired and everything was a little on the old side.They were making an effort to be clean, efficient and the park and fly option was well done.  It was better than I expected from Quality Inn. I’ll give them a 4.More</t>
+  </si>
+  <si>
+    <t>ThorneBirdGT</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r185020467-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -1598,6 +1793,9 @@
 The breakfast room was fairly small,...We neded to get a place close to the Long Beach airport for an early morning flight out on Alaska Airlines. After looking at a lot of properties, we finally settled on the Quality Inn because it is one of the Choice Hotels properties, and we have had fairly good to very good experiences with other Quality Inns, Sleep Inns, Comfort Inns, etc.Pacific Coast Highway in this general area is not our idea of an upscale neighborhood, but the Qualityh Inn was on a block which looked to be a bit higher than a lot of the highway. We asked for a king bedded room and got one in the back corner. The room itself was pretty standard size, but not done by a great interior decorator. Standard, dark carpet to hide the stains, staindard heavy dark furniture, just kind of a plain, non-exdeptional feel to it, but OK. The bed was really good, and so were the pillows. The TV reception on every channel was pretty bad, with lots of snow and wavy lines. On checkout, I complained about this to the desk clerk, and he wrote it down and said someone would look into it. The bedspread (not comforter) looked stained and worn and could stand being cleaned or better, replaced. Standard two sinks outside the toilet/bathtub room. Inside the toilet/bathrub room, the floor molding really needed some attention or replacing.The breakfast room was fairly small, with just the same standard waffle iron, hard boiled eggs, two juices, coffee and hot water, cold cereal, and bread/bagel/pastry container. Not bad, but very standard. That seems to typify this motel -- in a word, it's standard. In another word, Okay. It's not bad. It's not great. It's average, and if you, like us, need a room for under $100 close to the Long Beach airport, it'll do.More</t>
   </si>
   <si>
+    <t>Karen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r181937288-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1625,6 +1823,9 @@
     <t>This was a return trip.  The hotel is clean, comfortable and in a OK neiborhood.  I always ask for a room in the back corner, as it is the most quiet area.  The beds have been updated since my last stay and very comfortable.  Each room has a table and two chairs with good Wi-Fi.  Breakfast is typical, good enough to get you started for the day.  I will most likely stay there again, as it is close to family and friends.  The hotel has the best rate for a clean comfortable room in Long Beach that I have found.More</t>
   </si>
   <si>
+    <t>George S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r180511304-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1643,6 +1844,9 @@
     <t>The hotel staff was very helpful (front desk person=Christian was very helpful.  The hotel was very clean and accomidiating.  Wasn't sure about the location area but soon felt comfortable about the area.  Breakfast was good and had more items than expected.More</t>
   </si>
   <si>
+    <t>deedee5576</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r180331225-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1661,6 +1865,9 @@
     <t>I was able to get a room fairly quickly and there was a nice gentleman at the desk. Once I entered my room I found that it had only halfway been cleaned. There was urine on the toilet seat and an insect on my nicely folded bath towel. I called down to the office and was accommodated with a new room. In the midst of getting ready, I noticed that the a/c was not working properly and the toothpaste I spit in the sink an hour earlier was still there. It stayed there until the morning. I would have asked for another room but had been told previously that it was the last nonsmoking room available so I stuck it out. I definitley would not suggest or stay there again.More</t>
   </si>
   <si>
+    <t>Julie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r174560087-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1682,6 +1889,9 @@
     <t>The room was clean with a comfortable bed.  I slept well.  I was in this area for a few days for some training.  The breakfast was good considering it was continental.  The staff was very friendly and helpful.More</t>
   </si>
   <si>
+    <t>Havaki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r174534935-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1697,6 +1907,9 @@
     <t>I arrived here after a long flight from Europe early in the evening. The staff was very helpful indeed and the room was better than I expected after reading some of the reviews just before I booked. A spacious room, good bed, very good shower with shower gels etc and a lot of clean towels. A cold fridge, a very efficient air conditioner, what more does a man want? During the time I stayed here, I was helped by several staff members, all friendly and polite.More</t>
   </si>
   <si>
+    <t>Gobiv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r174524057-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1712,6 +1925,9 @@
     <t>I don't know the long beach area well and didnt know about this hotel but glad we stayed here.Bed was comfy, the room was clean and it was quiet.And the continental breakfast was fine.Overall we liked the staff and stay.More</t>
   </si>
   <si>
+    <t>Krafte1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r169002829-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1739,6 +1955,9 @@
     <t>We arrived after a long drive and got checked in.  Went to our room to find that we were sent to a room that was not made up (beds stripped, garbage all over).  Called front desk and they sent us to a new room.  Just a hassle and after a long day, really did not want to have to deal with it.  Room was OK, really needs a makeover.  Bedspreads are at least 10 years old.  It did the job, but for all the hotels we stayed in on our 12 day trip, this was the worst.  Hotel Pool small.  Breakfast adequate.  Front desk service was great.  Stayed with their cruise package, and left car there to save a few bucks.  We were off our cruise and ready to be shuttled back at 7:30.  Shuttle service did not start till 9.  We chose not to wait and took taxi back to hotel.  It said on information sheet that shuttle service was not available till 9, so it was our own fault.  But when they make you get out of your cabins to get ready for next cruise, not much you can do.  Had long drive in front of us and chose not to wait.  Bottom line is that I wished return shuttle service started earlier.More</t>
   </si>
   <si>
+    <t>Linda P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r167999500-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1763,6 +1982,9 @@
     <t>We stayed at the Quality Inn for our son's beach soccer tournament. The hotel was a perfect location just a few miles from the beach. The room was clean, a good size, had a frig and microwave. The boys had a great time swimming at the pool when their games were over. We had a few problems with our room and the GM Will Suh was very accommodating and prompt. I have to commend his excellent service. I would recommend this hotel and stay again if in the area.More</t>
   </si>
   <si>
+    <t>powderpf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r166812043-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1787,6 +2009,9 @@
     <t>Not wanting to do more than sleep in our room while visiting the family, we are concerned about: location, value, cleanliness, service and A/C. We are satisfied in every way with this motel.We experienced a little trouble in the communication between Choice Privledges desk when we made the reservation and this motel. The motel solved the problem immediately with no hassle. Good place in an area that has either very expensive places or really cheap places with street people wandering thru the parking lot asking for money.More</t>
   </si>
   <si>
+    <t>Motherdaffy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r161941943-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1811,6 +2036,9 @@
     <t>This hotel is in need of a whole make over! the clerk who checked us in  was nice and very friendly that's really the only nice experience I had to say about this hotel. The breakfast is a joke they have one person attending both front desk and breakfast, breakfast is never restocked every time we went to there, everything was gone no one was paying attention! Always at the front desk playing on the computer or just not caring. It seem like no taking their job seriously. the room was completely in need of repairs have holes in the walls wallpaper falling off the wall, extension cords all over the floors.... just awful.More</t>
   </si>
   <si>
+    <t>Sens4life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r157933762-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1838,6 +2066,9 @@
     <t>Slightly above average hotel, spacious rooms. Beds were big and soft, free wifi, cable TV (not HD), fridge and microwave, iron and board in room, and shower heads had great water pressure. Best of all, Big E Pizza is next door, the front desk staff highly recommended it when I asked them if there were any restaurants up the street, glad they did. They have other Italian-ish dishes if you are tired of pizza. If you want something quicker, Del Taco, Subway, Jack in the Box and a donut shop are also nearby, as well as a convenience store. Breakfast was complimentary, had huge delicious vanilla and blueberry waffles, pastries, oatmeal amongst the usual staples.Pool and laundry machines onsite. Lobby is quite comfortable. Free transfers to nearby LGB airport, book in advance as there's no scheduled service. Check in time is at 3, out by 11. Staff were friendly so these times could likely be negotiated if necessary. Recommended to all.More</t>
   </si>
   <si>
+    <t>Alan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r157733458-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1862,6 +2093,9 @@
     <t>I tried to check in to my "assigned " room. It smelled of mold. And bed not made. The next room smelled like a rat died in it. No Towels and the A/C was missing a control knob. The next room was OK. Wall paper pealing off the walls. Mold in the shower. Noisy frig. Had to unplug at night to sleep. The front desk staff was nice in trying to accommodate me. Parking was good. WiFi was good. Didn't eat free breakfast. The doughnut shop next door was much better. I will not stay here again.More</t>
   </si>
   <si>
+    <t>sdsailboi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r151544136-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1889,6 +2123,9 @@
     <t>This hotel adds more value for your travel dollars than most others in the area, but I would not recommend this for more than a day or two.  I have traveled to Long Beach on several occasions for work and have stayed about a 1/2 mile down the road at the Rodeway Inn.  The Quality Inn is not only much quieter, but cleaner, safer and has a friendlier staff.  At only twenty dollars more per night it is worth these features.More</t>
   </si>
   <si>
+    <t>ernursecat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r151162911-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1913,6 +2150,9 @@
     <t>This hotel is one of the best I have stayed in with room rates well below $100.  The room is clean, the bed has a thick pillow top mattress with soft 200 thread count linen. The breakfast included waffle, sausage, boiled eggs, cold or hot cereal, pastries!  The coffee is available 24 hours. The staff is friendly and helpful.  There is a refrigerator and microwave which is extra at more expensive hotels.They also offer discount Disney tickets and free shuttle to Long Beach Airport.An added plus is having Big E Pizza next door which offers the best pizza, ribs to die for, calzones, pasta for takeout or eat in.I recommend this hotel highly. This is the second time I've stayed here and will come back again and again.More</t>
   </si>
   <si>
+    <t>Quintin N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r150451071-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1940,6 +2180,9 @@
     <t>I am glad that we did not stay for more than one day. I have three comments: (1) No privacy on any room when when you want your window drapes opened.(2) The toilet set was coming off the toilet it self. (3) The floor rug was dirty with lots of spot on it, I admit the prize per night was reasonable whoever I will have to think hard to re-book at this place again.More</t>
   </si>
   <si>
+    <t>Minivanhighway</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r147278636-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1962,6 +2205,9 @@
   </si>
   <si>
     <t>I got a better rate here than I normally would at other Quality inns. Front desk agent (John) at check in was friendy and seemed genuinely interested in making us feel welcome. Rooms were spacious, beds comfy. There's a bit of a lack of parking for larger vehicles , but otherwise good enough for me. More</t>
+  </si>
+  <si>
+    <t>RicknSimon</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r144850717-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -1993,6 +2239,9 @@
 The same could be said of the breakfast, two cereal options, a few doughnuts, no napkins, waffle mix out etc etc etc We had to keep asking for things which was a little embarassing. The lady at reception was sweet and doing her best to ensure that things were filled but it speaks...We needed to arrange an overnight stay having arrived in LA from the East Coast in the evening. The challenge when looking for accommodation in the Long Beach area is that they are priced dramatically at either end of the tariff scale and therefore, difficult to find somewhere that embued confidence. We therefore, chose Quality Inn Long Beach, more for the Quality Inn reputation and took the chance. This is not a Quality Inn!! At best it fits the low end scale of a Super 8 or Motel 6. The rooms are tired and in need of attention. Our room had the wall paper peeling from around the mirror an old sink area that needed repair and remodelling and a noisy A/C. However, the pervading thing that lingers is the smell. The whole room smells unclean - like they have had hobo's over for a sleep-in!!! The bedding (whilst clean smelt) the carpet looked like it hadn't seen a steam cleaner in its life and the room generally was dirty. I know we paid under $100 but were begging to pay more had we found an alternative.......The same could be said of the breakfast, two cereal options, a few doughnuts, no napkins, waffle mix out etc etc etc We had to keep asking for things which was a little embarassing. The lady at reception was sweet and doing her best to ensure that things were filled but it speaks to the overall theme here - anything goes!!! Oh! and what's with the cleaning staff getting into the breakfast things whilst the guests are still having/trying to have breakfast? Guess that's why there wasn't much there!!I wouldn't stay here again - that should say it all!! It is no where near a Quality Inn and failed to live up to all the rhetoric published on all the little Quality Inn signs displayed around the room.More</t>
   </si>
   <si>
+    <t>SunDancer1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r143719978-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2014,6 +2263,9 @@
     <t>I needed to fly out of LGB early one morning so I wanted a hotel near the airport.  This was a quick 5 minute drive.  The hotel was clean, had free parking, wifi, and a breakfast.  The hotel staff was great and very friendly.  The breakfast was basic but worked for what I needed.  The bed was comfortable and the room was quiet.More</t>
   </si>
   <si>
+    <t>Ron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r139443030-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2035,6 +2287,9 @@
     <t>The room was clean and equipped with a mini-fridge, microwave, hair dryer, free wi-fi and coffee maker.  Pertty much standard fare.  Although the desk clerk told me that many rooms had been upgraded to flat-screen televisions, ours had the older CRT type tv, the only inconvenience being that we couldn't hook up our laptop to watch movies of our choice.The air conditioner worked well, all lamps had working light bulbs in them (which isn't always the case).  The queen beds were comfortable with plenty of pillows.  My biggest gripes about the room was that wallpaper was peelling off the bathroom wall next to the tub, and the toilet 'rocked' from not being bolted down securely.The pool and jacuzzi were great.More</t>
   </si>
   <si>
+    <t>1andonly83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r138453165-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2053,6 +2308,9 @@
     <t>The first room one of the sheets was dirty and had ants, so we moved rooms that one had two spider then we moved to the third and the carpet so dirty spots every where tub was nasty had to go across the street to buy bleach to clean it room also had a nasty smell. I wouldn't recommend to nobody More</t>
   </si>
   <si>
+    <t>airebornranger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r137407888-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2074,6 +2332,9 @@
     <t>This was my second time in the summer at this location. It is clean, the breakfast is cold cereal, hard boiled egg, sausage, and make yourself pancakes, donuts, and bagels. Coffee left a lot to be desired, as did the gun orange juice. The bed was hard. I had picked another location, but it had recent bed bugs, and I passed. This one per the maid, had mattress covers, none of which fit the beds. They were over 1' short and the straps were too small to hold it in place. I asked for another, and that was the response, after checking the mattress for bed bugs.More</t>
   </si>
   <si>
+    <t>Sharon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r132265996-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2095,6 +2356,9 @@
     <t>Very convenient.Landed in Long Beach Airport. Shuttle picked me up from the Airport and took me straight to Quality Inn. Very reliable service. Stayed for the night and next morning, the shuttle took meback to the airport. Great breakfast. clean rooms. Just remember, shuttle hours are 9am - 4pm.More</t>
   </si>
   <si>
+    <t>J E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r132099765-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2113,6 +2377,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Jane K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r132048379-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2128,6 +2395,9 @@
     <t>Yes the decor is a bit outdated but you're not at the Ritz. For whatyou pay, you get a lot. Front desk let me check in early which was sohelpful.  Clean rooms and nice staff. I have 2 little ones and itincludes a good breakfast. In the afternoon, my kids swam for an hour. Cleanpool.  It's 3 miles from the beach so we got some breeze and sunshine.</t>
   </si>
   <si>
+    <t>Info A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r128567359-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2143,6 +2413,9 @@
     <t xml:space="preserve">The rooms need updating. Low water pressure, hot water did not work very good. Had a problem with ants coming through the wall from the outside in. Requested for a room change but it was more of a hastle than it was worth. If it was not for being on a business trip I would have gone somewhere else. </t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r128227453-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2164,6 +2437,9 @@
     <t>This is the most I have ever paid for a motel of this quality. The room was in disrepair. The toilet seat was ready to fall off, I had to tighten it up before using. Wall paper is torn and coming loose in places. Some one tried to repair it but did a bad job.  The carpet was stained with what appears to be blood spots.  Lights are controlled by motion switches that  turn lights off randomly if you are not walking around the room. All in all the worst Choice Motel I have ever stayed in. I spend about 150 night a year in a motel, my comparison are realistic.More</t>
   </si>
   <si>
+    <t>TravelTechPenngrove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r127786471-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2182,6 +2458,9 @@
     <t>The Quality Inn is easy to find and is near the airport.  The rooms were very clean and no odors from old smoke or anything. Some of the furniture needs a little attention but overall was adequate.   The power outlet is used so often that it is loose so watch when you charge up your stuff.  But to their credit, they were doing maintenance on rooms and fixing them up so they are making an effort to stay nice.  Standard kind of layout but the staff was very helpful and we had no problems at all.  Breakfast was just the right size and fresh food was served.I would recommend it if you have business in Long Beach as it has room to sit and plug in the computer and get work done.  But it also has a nice television and pool to relax in if you just want to relax.It is not a five star resort but for a Quality Inn, it appears to be well run and a good place to stay on business trips and also a good place to sleep when visiting the area.  Not much to do beside the pool so I wouldn't make it a vacation destination in itself. And the staff was very helpful and seemed upbeat.More</t>
   </si>
   <si>
+    <t>EasyRiderTour</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r124452694-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2203,6 +2482,9 @@
     <t>Ok, this is an older inexpensive hotel in a less-than-charming neighborhood.  Lower your expectations and then prepared to be pleasantly surprised.  The outside is sunny and cheerful, the people who work there are nice and engaged in their jobs, and the whole place is sparkling clean.  Yes, the furniture is dated, and we didn't get pillow-top mattresses or a flat-screen tv, but the linens were great, and each of our double beds had four nice pillows, and the bathroom was spotless, and the late afternoon sun through our (very clean) window felt great when we checked in, and we slept uninterrupted until it was time to get up and get ready to catch our plane.  The breakfast was just fine, the internet was fast and free, the parking was free, too, and it took us ten minutes to get to the airport.  The hotel has no pretensions and delivers on its promise.  It's a great deal.More</t>
   </si>
   <si>
+    <t>Grove T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r123349096-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2221,6 +2503,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>PhoenixBlessing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r123128086-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2236,6 +2521,9 @@
     <t>We stayed here for a cruise we had. They offer a shuttle and a place to keep your vehicle while gone. The hotel is in a safe area and the front counter guys were wonderful. The breakfast was continental and was a clean area. The rooms were clean, but a little dated. Shower heads were very low, so if you're tall watch out! Easy to find and we parked right out in front of the doors during our cruise. Would return if we did another cruise.</t>
   </si>
   <si>
+    <t>LilMissTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r120557026-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2263,6 +2551,9 @@
     <t>The Quality Inn is a good, modest, budget-friendly motel. I stayed here for a marathon I was running and was very happy with it.The location is close to the Aquarium and Queen Mary, and though it's off a busy street, it is quiet and restful. I didn't hear any street noise and was very pleasantly surprised.The clerks are nice enough and my room was spacious, with two large double beds. Cable TV (with HBO) and free WiFi made me very happy. Parking was also free but not quite as ample. I can see parking getting packed very easily. They have a small pool but I didn't use it.The room and bathroom were both perfectly clean and nice, though it was a little difficult to find the right temperature in the shower. The rooms also have wall heater/conditioner units, and I had the heater on and it was quiet and effective.I had a great time at this Quality Inn and was happy with my stay here.More</t>
   </si>
   <si>
+    <t>Dan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r120429619-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2281,6 +2572,9 @@
     <t>Our experience with both MATT and MARYBELL at the front desk was AMAZING!!!  Both of them were so very helpful and gracious!!  We truly appreciate their attention to detail and willingness to help in any situation, they are a wonderful addition to your staff!!!On the other hand...the property is in HORRIBLE shape...the spa was cold and has no bubbles, the computer in the reception area was broken, the iron did not work, the bathroom was not only dirty but the wall paper is literally falling off the walls and the beds were VERY uncomfortable!!!  /this property needs HELP!!More</t>
   </si>
   <si>
+    <t>Miata-lover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r120346024-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2305,6 +2599,9 @@
     <t>We stayed here before our 14 day cruise.  The staff was friendly and helpful.  The room was clean, and the breakfast was good.  The shuttle to Long Beach was fast and easy to use.  It was cheaper for us to stay here one night and take the shuttle to and from the ship, than it would have cost for just parking at the cruise ship terminal.We will definetly stay here for our next Carnival cruise.More</t>
   </si>
   <si>
+    <t>wipala</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r119299370-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2326,6 +2623,9 @@
     <t>We stayed at the Quality Inn in Long Beach Sunday October 2nd, 2011. Our purpose was we were leaving for a curise from Long Beach terminal the following day. We had stayed at this hotel two years ago and were very happy with our room and service and pricing. The staff at this hotel are very helpful and most friendly, regardless of the time of day you call them or talk with them. In my opinion this is not the norm at some hotels. Our room had a King size bed with all the usual stuff, very comfortable and CLEAN!! The hotel offers smoking and no smoking rooms, which we use, they also have connecting rooms for larger groups. The pool is small but clean and there is a hot tub as well. Now the really great part of this hotel is that they have a stay and sail deal. We stayed one night, left our car at the hotel all week, they delivered us to the pier and back--all for $100!! Outstanding..The hotel also takes people to the San Pedro pier for a small fee. The hotel is about 3 miles from Downtown and maybe 1-2 miles from Long Beach airport. Off street parking..There are plenty of places to eat near by, all within a mile or so..shopping a little over a mile away and close to freeways.More</t>
   </si>
   <si>
+    <t>SuzRas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r118548727-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2347,6 +2647,9 @@
     <t>We stayed at this hotel following a cruise.  The shuttle came to pick us up when the cruise ship docked ($15 extra to pick us up from the San Pedro cruise port-Long Beach cruise port is free) and also took us to the LGB airport the following day (free!).  The service was excellent (thanks Matt and Jordan) and lobby was very inviting.  While the furnishings of the hotel room was nice, there is quite a bit of upkeep that needs to be done (new wallpaper over holes in wall, replace the peeling wallpaper in the bathroom and fix the baseboards and wall damage in the bathroom, plus the carpet needs to be cleaned or replaced.  While it's not a neighborhood you're going to stroll around in, I think if you had a car, it's very close to the tourist part of Long Beach.  We would stay here again if we were going on or coming home from a cruise.  It was relatively quiet and the beds/linens were comfortable.More</t>
   </si>
   <si>
+    <t>lcboisacq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r116308471-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2368,6 +2671,9 @@
     <t>The rooms are nasty!! We were put into their "Suite" room since we had a large family and the floors were disgusting and stained, the couch was stained, sticky, and had cigarette burns on it. This is suppose to be a non-smoking room and it wreaks like smoke. The tub was stained with dark marks on the tub, the breakfast was horrible (no sausage, no coffee, no yogurt and we came at 7:30 a.m.). This was by far the worst hotel we stayed at on our trip and we have stayed at 3 hotels so far. For the price it is NOT worth it!! Save yourself the money and disgust and stay somewhere else! I will be downloading the pics we took when we get home.More</t>
   </si>
   <si>
+    <t>Richard F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r109510342-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2383,6 +2689,9 @@
     <t>Very good security and value for park and cruise with Carnival in Long Beach.</t>
   </si>
   <si>
+    <t>portorchardpat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r106269680-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2404,6 +2713,9 @@
     <t>We took advantage of the great rates for leaving our car when we left on the 4 day Carnival cruise out of Long Beach.  The location was great, the staff helpful and friendly, the beds and pillows wonderful, and the breakfast was all that we needed.  But I especially have to give Jordan a HUGE thank you for helping us out when we got in late Sunday night after driving from Phoenix.  The directions were great until it came to the exit off of 405......it was closed.  Took the next exit which put us on 605, and by the time we could get off that freeway, we had no clue where we were.  Called the hotel and told them our problem.....Jordan kept me on the phone, giving us detailed turn by turn directions until we pulled into their parking lot    WOW....never have I gotten that kind of service.  Only problem we had was that when we returned from the cruise, we got off the ship at 7:30 and didn't realize the shuttle pick-up didn't start until 9:00.  Had to take a cab back to the hotel to pick up our car.  Our fault....we should have read  the information they gave us more closely.  We would highly recommend this hotel for anyone crusing on Carnival out of Long Beach.More</t>
   </si>
   <si>
+    <t>Lucy5066</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r103549540-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2422,6 +2734,9 @@
     <t>When we arrived at this hotel we noticed that we were in a bad location.  When checking in the employee at the front desk was stressed out and rude.  We found out later that just a few minutes before we checked in, she was outside breaking up a fight between two women staying at this hotel.  After checking in, there was 3 bus loads of teenage kids who drove up.  Guess were the front desk employee put all those teenage kids?  Right above us and next to our rooms.  They made so much noise and finally at 11:00 pm the noise stop.  The room looked like nothing had been done to it in 40 years.  It looked like something you would see in the 1970's.  The carpet was dirty and there were red stains on the carpet near the bathroom.  The bathroom wallpaper was coming off.  On the positive side the bed was comfortable and the breakfast in the morning was nice. However, I would not stay here again. I was afraid of the area.More</t>
   </si>
   <si>
+    <t>WrsBusiness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r71846480-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2446,6 +2761,9 @@
     <t>I recently spent 3 days at this hotel and was completely satisfied. The staff was so friendly and helpful both of the ladies at the front desk gave me directions and told me about area attractions. The room was comfortable and extremely clean. The breakfast was delicious and had a good variety. I would definitely recommend this hotel!More</t>
   </si>
   <si>
+    <t>kAZual520</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r62447330-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2470,6 +2788,9 @@
     <t>Took a carnival cruise in March and was very indecisive about where my family and friends would stay and leave our vehicles for a week.. I read all the reviews for all hotels in the long beach area on all the different hotel websites and this one had excellent reviews on all of them. When it came time to book I called and spoke to probably one of the nicest guys I've ever spoken to at a hotel. He told me that there is 16!!!, 16 cameras watching the hotel property and the price for a room with four people, including transportation to Carnival and back was $119.00. I was sold.. Upon arrival the gentalman at the front desk(not the one I spoke with over the phone) was also extremely friendly. Granted the rooms were a tad bit older but they worked.. And what put the icing on the cake was there was a tiny plaza right next door with a Subway, pizza place and a mini grocery store which sold alchohol!! Lol.. There was also a del taco across the street and lots of other restaurants near by! The little continental breakfast bar had waffles and plenty of other goodies which we enjoyed right before our van transport to the cruise terminal. Overall I was extremely satisfied with this hotel and have already recommended it to two groups of friends that are also going on Carnival cruises!!More</t>
   </si>
   <si>
+    <t>spreadsheetqueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r62428767-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2494,6 +2815,9 @@
     <t>The hotel itself was descent.  Quality Inn's definitely have some set standards.  The employees were great.  BUT... please know you are staying in the ghetto.  If you are comfortable with that, great.  if not, you might want to pay a little more to stay elsewhere.  If it helps put it in perspective, Snoop Dogg was raised here, Roscoe's chicken and waffles was just a couple of blocks away and the term LBC refers to the Long Beach Crips.More</t>
   </si>
   <si>
+    <t>Str623</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r45090976-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2512,6 +2836,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>roundtrip08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r31058115-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2539,6 +2866,9 @@
     <t>Room was spacious but a little dark and huge windows which people regularly walked passed. Pool looked small but nice, full of kids so didnt go in. Hotel was located a little far from any attractions so only good if you have a car. Free breakfast was good with plenty of selection.More</t>
   </si>
   <si>
+    <t>Tom S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r29341646-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2560,6 +2890,9 @@
     <t>Stayed here before a cruise.Got in later (9pm). Not much trouble finding the place. It didn't seem like the best section of town, but no legitimate concerns.Free parking.Checked in without any problem.Wanted to reserve the free shuttle for the cruise pier (one big reason I chose this place) but it only runs from 9-2 (if I remember right) and on the hour. Plus it only holds about 6 people. Since we got in late, only the last run was available, but wouldn't hold more than three (of five) of us, so that didn't work out. Bottom line- book early for the shuttle if you intend to take it.Room was very large with a pair of queen beds. But I couldn't warm up to it. Kind of a generic atmosphere. Bathroom area was average, though the sink counter space was quite large.Free wireless internet worked fine.Typical buffet breakfast worked for me.Suitable for a one night stay, but I doubt I'd go back as it was a bit pricey in my opinion.More</t>
   </si>
   <si>
+    <t>canuck668</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r20569178-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2587,6 +2920,9 @@
     <t>I had read some mixed reviews about this hotel online before I booked it. Stayed here for 2 nights in August 2008. Upon check-in, the first thing we noticed was the lobby was under construction. No big deal. Found our room which was decent enough. Tons of TV channels! One thing that looked kinda bad was the door to the bathroom. Looked as if they had taken an old door from the garbage and put it on the bathroom. Thin as can be and it barely fit on the frame. Then we went to the front desk and asked the man what are options are for food in the area. He was friendly but basically said "not much". He did mention the fast food mexican across the street. We asked if there was a pasta place nearby and he gave us directions to another neighbourhood with a lot of choice. Funny thing is, upon investigation we found a pasta place RIGHT NEXT DOOR (about 50 yards from their front door). In fact, they share the same parking lot as the hotel!!. The pool/hot tub area was fine and we spent a few hours down there. May have seen a couple ants in my restroom, but thats it except for one cockroach i saw OUTSIDE drowned by the pool. The neighbourhood seemed OK, tho i would not want to be walking around it at night. For the price, not bad. Been...I had read some mixed reviews about this hotel online before I booked it. Stayed here for 2 nights in August 2008. Upon check-in, the first thing we noticed was the lobby was under construction. No big deal. Found our room which was decent enough. Tons of TV channels! One thing that looked kinda bad was the door to the bathroom. Looked as if they had taken an old door from the garbage and put it on the bathroom. Thin as can be and it barely fit on the frame. Then we went to the front desk and asked the man what are options are for food in the area. He was friendly but basically said "not much". He did mention the fast food mexican across the street. We asked if there was a pasta place nearby and he gave us directions to another neighbourhood with a lot of choice. Funny thing is, upon investigation we found a pasta place RIGHT NEXT DOOR (about 50 yards from their front door). In fact, they share the same parking lot as the hotel!!. The pool/hot tub area was fine and we spent a few hours down there. May have seen a couple ants in my restroom, but thats it except for one cockroach i saw OUTSIDE drowned by the pool. The neighbourhood seemed OK, tho i would not want to be walking around it at night. For the price, not bad. Been to MUCH worse.More</t>
   </si>
   <si>
+    <t>CasualView</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r18379476-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2605,6 +2941,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>girlwholovestoshop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r16645193-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2623,6 +2962,9 @@
     <t>I booked the Quality Inn through AAA because of the low rate and high reviews on a recent trip to Long Beach to visit family.  We were in a non-smoking room with a king-size bed.  Unfortunately, the room smelled like smoke, probably because rooms next to it were smoking and well, smoke travels.  This however, was not so much a problem as it was a nuisance.  The hotel had ample parking and the rooms are fairly far away from the main street, Pacific Coast Highway which are fantastic attributes.  I have the terrible rating because two small cockroaches, (about half an inch each) crawled out from behind the mirror.  While the rate was at a discounted $98 per night, there should NOT have been cockroaches in the room.  It was disgusting.  We will never stay at a Quality Inn in Long Beach or anywhere else again.More</t>
   </si>
   <si>
+    <t>kqt903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r8215335-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2641,6 +2983,9 @@
     <t>My daughter and I stayed at the Comfort Inn, with the expectation of cleanliness and safety. I was very dissapointed and dismayed at the filth of the room. The first room we checked into had no air conditionig. The staff moved us to another room, where we were joinedby unwelcome guests: ANTS in our beds!! Being a single mother and traveling alone with my daughter, safety was a paramount concern.  One morning, there was someone, apparently quite strung out, rumagingthrough the garbage can directly outside our door. I would NOT recommend this hotel to anyone. Yes, its inexpensive, however being bit by ants all night is no bargain. The pool was dirtyMore</t>
   </si>
   <si>
+    <t>RicoTraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r7548991-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2662,6 +3007,9 @@
     <t>Good location, right off Pacific Coast Hwy.  Not much to the neighborhood but you are within 5 minutes of downtown attractions.  The hotel could use some updating but the price is quite reasonable.  Rooms are clean and breakfast is good.More</t>
   </si>
   <si>
+    <t>jwest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r6841513-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2680,6 +3028,9 @@
     <t>My family and I began and ended our trip to Southern CA at this hotel.  It's really close to the Long Beach Airport.The breakfast was great, lots of choices, the room was large enough to hold a roll-away (so we could sleep 5 in the room).  It was clean and it didn't cost that much.I found the staff to be really pro-active.  They called back after I booked the reservation to make sure they hadn't misunderstood (we wanted a Friday night and Saturday night, but the were a week apart ... made sense to me :-), but I guess it was a little unusual).  In any event, that step impressed me that they'd take the time to make sure something was right.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r3317654-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2693,6 +3044,9 @@
   </si>
   <si>
     <t>The rooms are well equipped.  You can tell that they try hard to impress.  The outside looks decent, especially considering the location.  We found very little around the motel that was as nice as this place.Our room had a TV, Microwave, Iron, Ironing Board, Massage Shower Head and the room appeared clean.  We had a non smoking room and it nice.If you want an affordable room that is nice then you could do much worse.</t>
+  </si>
+  <si>
+    <t>Accrosby1101</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77580-r2970236-Quality_Inn_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -3251,43 +3605,47 @@
       <c r="A2" t="n">
         <v>3943</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3307,50 +3665,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3943</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3370,41 +3732,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3943</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -3421,56 +3787,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3943</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3484,50 +3854,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3943</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3541,50 +3915,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3943</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3598,50 +3976,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3943</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -3659,56 +4041,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3943</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3722,50 +4108,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3943</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3779,50 +4169,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3943</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3836,50 +4230,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3943</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3893,50 +4291,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3943</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3956,50 +4358,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3943</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4013,50 +4419,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3943</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4074,50 +4484,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3943</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -4137,50 +4551,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3943</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4194,50 +4612,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3943</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -4257,41 +4679,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3943</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
@@ -4310,50 +4736,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3943</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -4371,50 +4801,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3943</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4434,50 +4868,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3943</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4497,50 +4935,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3943</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4560,50 +5002,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3943</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4621,50 +5067,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3943</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4684,50 +5134,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3943</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4741,50 +5195,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3943</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4802,50 +5260,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3943</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4865,50 +5327,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3943</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4926,50 +5392,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3943</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4989,50 +5459,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3943</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -5052,50 +5526,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3943</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5107,56 +5585,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="X32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3943</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5168,56 +5650,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="X33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3943</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>288</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5229,56 +5715,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="X34" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="Y34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3943</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>296</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5296,56 +5786,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="X35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="Y35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3943</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5357,56 +5851,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="X36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3943</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>314</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5418,56 +5916,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="X37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3943</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>324</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5479,56 +5981,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="X38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Y38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3943</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>333</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5540,56 +6046,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="X39" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Y39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3943</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>341</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="J40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="K40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5601,56 +6111,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="X40" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Y40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3943</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>348</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5662,56 +6176,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="X41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="Y41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3943</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>358</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="O42" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5729,56 +6247,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="X42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="Y42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3943</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>368</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5790,56 +6312,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="X43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3943</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>374</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5855,56 +6381,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="X44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="Y44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3943</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5920,47 +6450,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3943</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>394</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5977,56 +6511,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X46" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3943</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>401</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -6044,56 +6582,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X47" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3943</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6109,56 +6651,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X48" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3943</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="K49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6176,56 +6722,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X49" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3943</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>423</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6243,56 +6793,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="X50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="Y50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3943</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6310,56 +6864,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X51" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3943</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>439</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="J52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="K52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6375,56 +6933,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="X52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="Y52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3943</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="J53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6440,56 +7002,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="X53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="Y53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3943</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>458</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -6505,56 +7071,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="X54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="Y54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3943</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>468</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="J55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="L55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="O55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6572,56 +7142,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="X55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="Y55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3943</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>478</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="J56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="K56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="L56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6641,50 +7215,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3943</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>485</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="J57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="K57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="O57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6704,50 +7282,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3943</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>492</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="J58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="K58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6763,56 +7345,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="X58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="Y58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3943</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>502</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="K59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="L59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6824,56 +7410,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="X59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="Y59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3943</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>512</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="J60" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="K60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="L60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6897,50 +7487,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3943</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>519</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="J61" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="K61" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="L61" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="O61" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6962,56 +7556,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X61" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3943</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>527</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="J62" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="K62" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="L62" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -7033,56 +7631,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="X62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="Y62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3943</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="K63" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="L63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7104,56 +7706,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="X63" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="Y63" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3943</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>545</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="J64" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="K64" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="L64" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="O64" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7175,56 +7781,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="X64" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="Y64" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3943</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>554</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="K65" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="L65" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="O65" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -7246,56 +7856,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="X65" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="Y65" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3943</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>564</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="J66" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="K66" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="L66" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7317,56 +7931,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="X66" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="Y66" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3943</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>573</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="J67" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="K67" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="O67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7388,56 +8006,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="X67" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="Y67" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3943</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>581</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="J68" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="K68" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="L68" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="O68" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7459,56 +8081,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="X68" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="Y68" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3943</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>591</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="J69" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="K69" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="L69" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="O69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7530,56 +8156,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="X69" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="Y69" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3943</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>598</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="J70" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="K70" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="L70" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7601,56 +8231,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="X70" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="Y70" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3943</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>605</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="J71" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="K71" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="L71" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7662,47 +8296,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="X71" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="Y71" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3943</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>613</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="J72" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="K72" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="L72" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
@@ -7729,47 +8367,51 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="X72" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="Y72" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3943</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>619</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="J73" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="K73" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="L73" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -7796,56 +8438,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="X73" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="Y73" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3943</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>625</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="J74" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="K74" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="L74" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="O74" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7867,56 +8513,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="X74" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="Y74" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3943</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>635</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J75" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="K75" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="L75" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7938,47 +8588,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="X75" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="Y75" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3943</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>644</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="J76" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="K76" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="L76" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -8005,47 +8659,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="X76" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="Y76" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3943</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>653</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
       <c r="J77" t="s">
-        <v>581</v>
+        <v>656</v>
       </c>
       <c r="K77" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
       <c r="L77" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
@@ -8072,56 +8730,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="X77" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="Y77" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3943</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>662</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>587</v>
+        <v>663</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>588</v>
+        <v>664</v>
       </c>
       <c r="J78" t="s">
-        <v>589</v>
+        <v>665</v>
       </c>
       <c r="K78" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="L78" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="O78" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8133,56 +8795,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="X78" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="Y78" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3943</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>672</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="J79" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="K79" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="L79" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -8204,56 +8870,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="X79" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="Y79" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3943</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>681</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="J80" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="K80" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="L80" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8275,47 +8945,51 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="X80" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="Y80" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3943</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>691</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="J81" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="K81" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="L81" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
@@ -8342,56 +9016,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="X81" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="Y81" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3943</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>700</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="J82" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="K82" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="L82" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -8413,47 +9091,51 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="X82" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="Y82" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3943</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>710</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="J83" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="K83" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="L83" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
@@ -8480,56 +9162,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="X83" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="Y83" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3943</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>719</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="J84" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="K84" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="L84" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="O84" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P84" t="n">
         <v>2</v>
@@ -8551,56 +9237,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="X84" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="Y84" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3943</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>727</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="J85" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="K85" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="L85" t="s">
-        <v>649</v>
+        <v>732</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="O85" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8622,56 +9312,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="X85" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="Y85" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3943</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>735</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="J86" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="K86" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="L86" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="O86" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8693,47 +9387,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="X86" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="Y86" t="s">
-        <v>658</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>3943</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>743</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>659</v>
+        <v>744</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>660</v>
+        <v>745</v>
       </c>
       <c r="J87" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="K87" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="L87" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
@@ -8760,56 +9458,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="X87" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="Y87" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>3943</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>750</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>665</v>
+        <v>751</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="J88" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
       <c r="K88" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="L88" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="O88" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8831,56 +9533,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="X88" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="Y88" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>3943</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>758</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>672</v>
+        <v>759</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="J89" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="K89" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="L89" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8902,56 +9608,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="X89" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="Y89" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>3943</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>766</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>679</v>
+        <v>767</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>680</v>
+        <v>768</v>
       </c>
       <c r="J90" t="s">
-        <v>681</v>
+        <v>769</v>
       </c>
       <c r="K90" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="L90" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="O90" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8975,50 +9685,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>3943</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>773</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>685</v>
+        <v>774</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>686</v>
+        <v>775</v>
       </c>
       <c r="J91" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
       <c r="K91" t="s">
-        <v>688</v>
+        <v>777</v>
       </c>
       <c r="L91" t="s">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="O91" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -9032,41 +9746,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>689</v>
+        <v>778</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>3943</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>779</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="J92" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="K92" t="s">
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="L92" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
@@ -9085,50 +9803,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>3943</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>785</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="J93" t="s">
-        <v>697</v>
+        <v>788</v>
       </c>
       <c r="K93" t="s">
-        <v>698</v>
+        <v>789</v>
       </c>
       <c r="L93" t="s">
-        <v>699</v>
+        <v>790</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
       <c r="O93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -9152,50 +9874,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>701</v>
+        <v>792</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>3943</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>793</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>702</v>
+        <v>794</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="J94" t="s">
-        <v>704</v>
+        <v>796</v>
       </c>
       <c r="K94" t="s">
-        <v>705</v>
+        <v>797</v>
       </c>
       <c r="L94" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
       <c r="O94" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9219,50 +9945,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>707</v>
+        <v>799</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>3943</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>800</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="J95" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="K95" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="L95" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>713</v>
+        <v>806</v>
       </c>
       <c r="O95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9286,50 +10016,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>714</v>
+        <v>807</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>3943</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>808</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>715</v>
+        <v>809</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>716</v>
+        <v>810</v>
       </c>
       <c r="J96" t="s">
-        <v>717</v>
+        <v>811</v>
       </c>
       <c r="K96" t="s">
-        <v>718</v>
+        <v>812</v>
       </c>
       <c r="L96" t="s">
-        <v>719</v>
+        <v>813</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>720</v>
+        <v>814</v>
       </c>
       <c r="O96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -9345,50 +10079,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>719</v>
+        <v>813</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>3943</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>815</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>721</v>
+        <v>816</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="J97" t="s">
-        <v>723</v>
+        <v>818</v>
       </c>
       <c r="K97" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="L97" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>720</v>
+        <v>814</v>
       </c>
       <c r="O97" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9412,50 +10150,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>3943</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>821</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>726</v>
+        <v>822</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>727</v>
+        <v>823</v>
       </c>
       <c r="J98" t="s">
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="K98" t="s">
-        <v>729</v>
+        <v>825</v>
       </c>
       <c r="L98" t="s">
-        <v>730</v>
+        <v>826</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>731</v>
+        <v>827</v>
       </c>
       <c r="O98" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9477,56 +10219,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>732</v>
+        <v>828</v>
       </c>
       <c r="X98" t="s">
-        <v>733</v>
+        <v>829</v>
       </c>
       <c r="Y98" t="s">
-        <v>734</v>
+        <v>830</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>3943</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>831</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>735</v>
+        <v>832</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="J99" t="s">
-        <v>737</v>
+        <v>834</v>
       </c>
       <c r="K99" t="s">
-        <v>738</v>
+        <v>835</v>
       </c>
       <c r="L99" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>731</v>
+        <v>827</v>
       </c>
       <c r="O99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -9548,47 +10294,51 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>732</v>
+        <v>828</v>
       </c>
       <c r="X99" t="s">
-        <v>733</v>
+        <v>829</v>
       </c>
       <c r="Y99" t="s">
-        <v>740</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>3943</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>838</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="J100" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
       <c r="K100" t="s">
-        <v>744</v>
+        <v>842</v>
       </c>
       <c r="L100" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
@@ -9615,56 +10365,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>746</v>
+        <v>844</v>
       </c>
       <c r="X100" t="s">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="Y100" t="s">
-        <v>748</v>
+        <v>846</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>3943</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>847</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
       <c r="J101" t="s">
-        <v>751</v>
+        <v>850</v>
       </c>
       <c r="K101" t="s">
-        <v>752</v>
+        <v>851</v>
       </c>
       <c r="L101" t="s">
-        <v>753</v>
+        <v>852</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>754</v>
+        <v>853</v>
       </c>
       <c r="O101" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9686,56 +10440,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>746</v>
+        <v>844</v>
       </c>
       <c r="X101" t="s">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="Y101" t="s">
-        <v>755</v>
+        <v>854</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>3943</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>855</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>756</v>
+        <v>856</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>757</v>
+        <v>857</v>
       </c>
       <c r="J102" t="s">
-        <v>758</v>
+        <v>858</v>
       </c>
       <c r="K102" t="s">
-        <v>759</v>
+        <v>859</v>
       </c>
       <c r="L102" t="s">
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>761</v>
+        <v>861</v>
       </c>
       <c r="O102" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9757,56 +10515,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>746</v>
+        <v>844</v>
       </c>
       <c r="X102" t="s">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="Y102" t="s">
-        <v>762</v>
+        <v>862</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>3943</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>863</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="J103" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
       <c r="K103" t="s">
-        <v>766</v>
+        <v>867</v>
       </c>
       <c r="L103" t="s">
-        <v>767</v>
+        <v>868</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>768</v>
+        <v>869</v>
       </c>
       <c r="O103" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -9824,47 +10586,51 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>746</v>
+        <v>844</v>
       </c>
       <c r="X103" t="s">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="Y103" t="s">
-        <v>769</v>
+        <v>870</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>3943</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>871</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>770</v>
+        <v>872</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
       <c r="J104" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="K104" t="s">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="L104" t="s">
-        <v>774</v>
+        <v>876</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
@@ -9893,50 +10659,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>774</v>
+        <v>876</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>3943</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>877</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>775</v>
+        <v>878</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="J105" t="s">
-        <v>777</v>
+        <v>880</v>
       </c>
       <c r="K105" t="s">
-        <v>778</v>
+        <v>881</v>
       </c>
       <c r="L105" t="s">
-        <v>779</v>
+        <v>882</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>780</v>
+        <v>883</v>
       </c>
       <c r="O105" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9960,50 +10730,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>781</v>
+        <v>884</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>3943</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>885</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>782</v>
+        <v>886</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>783</v>
+        <v>887</v>
       </c>
       <c r="J106" t="s">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c r="K106" t="s">
-        <v>785</v>
+        <v>889</v>
       </c>
       <c r="L106" t="s">
-        <v>786</v>
+        <v>890</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>780</v>
+        <v>883</v>
       </c>
       <c r="O106" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -10027,41 +10801,45 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>787</v>
+        <v>891</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>3943</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>892</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>788</v>
+        <v>893</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>789</v>
+        <v>894</v>
       </c>
       <c r="J107" t="s">
-        <v>790</v>
+        <v>895</v>
       </c>
       <c r="K107" t="s">
-        <v>791</v>
+        <v>896</v>
       </c>
       <c r="L107" t="s">
-        <v>792</v>
+        <v>897</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
@@ -10088,47 +10866,51 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>793</v>
+        <v>898</v>
       </c>
       <c r="X107" t="s">
-        <v>794</v>
+        <v>899</v>
       </c>
       <c r="Y107" t="s">
-        <v>795</v>
+        <v>900</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>3943</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>901</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>796</v>
+        <v>902</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>797</v>
+        <v>903</v>
       </c>
       <c r="J108" t="s">
-        <v>798</v>
+        <v>904</v>
       </c>
       <c r="K108" t="s">
-        <v>799</v>
+        <v>905</v>
       </c>
       <c r="L108" t="s">
-        <v>800</v>
+        <v>906</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
@@ -10155,56 +10937,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>801</v>
+        <v>907</v>
       </c>
       <c r="X108" t="s">
-        <v>802</v>
+        <v>908</v>
       </c>
       <c r="Y108" t="s">
-        <v>803</v>
+        <v>909</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>3943</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>910</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>804</v>
+        <v>911</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>805</v>
+        <v>912</v>
       </c>
       <c r="J109" t="s">
-        <v>798</v>
+        <v>904</v>
       </c>
       <c r="K109" t="s">
-        <v>806</v>
+        <v>913</v>
       </c>
       <c r="L109" t="s">
-        <v>807</v>
+        <v>914</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>808</v>
+        <v>915</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -10226,56 +11012,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>809</v>
+        <v>916</v>
       </c>
       <c r="X109" t="s">
-        <v>810</v>
+        <v>917</v>
       </c>
       <c r="Y109" t="s">
-        <v>811</v>
+        <v>918</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>3943</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>919</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>812</v>
+        <v>920</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>813</v>
+        <v>921</v>
       </c>
       <c r="J110" t="s">
-        <v>814</v>
+        <v>922</v>
       </c>
       <c r="K110" t="s">
-        <v>815</v>
+        <v>923</v>
       </c>
       <c r="L110" t="s">
-        <v>816</v>
+        <v>924</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>817</v>
+        <v>925</v>
       </c>
       <c r="O110" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10299,50 +11089,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>816</v>
+        <v>924</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>3943</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>926</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>818</v>
+        <v>927</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>819</v>
+        <v>928</v>
       </c>
       <c r="J111" t="s">
-        <v>820</v>
+        <v>929</v>
       </c>
       <c r="K111" t="s">
-        <v>821</v>
+        <v>930</v>
       </c>
       <c r="L111" t="s">
-        <v>822</v>
+        <v>931</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>823</v>
+        <v>932</v>
       </c>
       <c r="O111" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P111" t="s"/>
       <c r="Q111" t="s"/>
@@ -10354,56 +11148,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>824</v>
+        <v>933</v>
       </c>
       <c r="X111" t="s">
-        <v>825</v>
+        <v>934</v>
       </c>
       <c r="Y111" t="s">
-        <v>826</v>
+        <v>935</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>3943</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>936</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>827</v>
+        <v>937</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>828</v>
+        <v>938</v>
       </c>
       <c r="J112" t="s">
-        <v>829</v>
+        <v>939</v>
       </c>
       <c r="K112" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
       <c r="L112" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>832</v>
+        <v>942</v>
       </c>
       <c r="O112" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -10427,50 +11225,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>833</v>
+        <v>943</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>3943</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>944</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>834</v>
+        <v>945</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>835</v>
+        <v>946</v>
       </c>
       <c r="J113" t="s">
-        <v>836</v>
+        <v>947</v>
       </c>
       <c r="K113" t="s">
-        <v>837</v>
+        <v>948</v>
       </c>
       <c r="L113" t="s">
-        <v>838</v>
+        <v>949</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>839</v>
+        <v>950</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10492,56 +11294,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="X113" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="Y113" t="s">
-        <v>842</v>
+        <v>953</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>3943</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>954</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>843</v>
+        <v>955</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>844</v>
+        <v>956</v>
       </c>
       <c r="J114" t="s">
-        <v>845</v>
+        <v>957</v>
       </c>
       <c r="K114" t="s">
-        <v>846</v>
+        <v>958</v>
       </c>
       <c r="L114" t="s">
-        <v>847</v>
+        <v>959</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>848</v>
+        <v>960</v>
       </c>
       <c r="O114" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10565,50 +11371,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>847</v>
+        <v>959</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>3943</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>961</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>849</v>
+        <v>962</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>850</v>
+        <v>963</v>
       </c>
       <c r="J115" t="s">
-        <v>851</v>
+        <v>964</v>
       </c>
       <c r="K115" t="s">
-        <v>852</v>
+        <v>965</v>
       </c>
       <c r="L115" t="s">
-        <v>853</v>
+        <v>966</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>848</v>
+        <v>960</v>
       </c>
       <c r="O115" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -10628,47 +11438,51 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="X115" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="Y115" t="s">
-        <v>854</v>
+        <v>967</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>3943</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>968</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>855</v>
+        <v>969</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>856</v>
+        <v>970</v>
       </c>
       <c r="J116" t="s">
-        <v>857</v>
+        <v>971</v>
       </c>
       <c r="K116" t="s">
-        <v>858</v>
+        <v>972</v>
       </c>
       <c r="L116" t="s">
-        <v>859</v>
+        <v>973</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
@@ -10695,56 +11509,60 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>824</v>
+        <v>933</v>
       </c>
       <c r="X116" t="s">
-        <v>825</v>
+        <v>934</v>
       </c>
       <c r="Y116" t="s">
-        <v>860</v>
+        <v>974</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>3943</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>975</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>861</v>
+        <v>976</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>862</v>
+        <v>977</v>
       </c>
       <c r="J117" t="s">
-        <v>863</v>
+        <v>978</v>
       </c>
       <c r="K117" t="s">
-        <v>864</v>
+        <v>979</v>
       </c>
       <c r="L117" t="s">
-        <v>865</v>
+        <v>980</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
       </c>
       <c r="N117" t="s">
-        <v>866</v>
+        <v>981</v>
       </c>
       <c r="O117" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -10766,47 +11584,51 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="X117" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="Y117" t="s">
-        <v>867</v>
+        <v>982</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>3943</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>983</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>868</v>
+        <v>984</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>869</v>
+        <v>985</v>
       </c>
       <c r="J118" t="s">
-        <v>870</v>
+        <v>986</v>
       </c>
       <c r="K118" t="s">
-        <v>871</v>
+        <v>987</v>
       </c>
       <c r="L118" t="s">
-        <v>872</v>
+        <v>988</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
@@ -10835,41 +11657,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>873</v>
+        <v>989</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>3943</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>990</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>874</v>
+        <v>991</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>875</v>
+        <v>992</v>
       </c>
       <c r="J119" t="s">
-        <v>876</v>
+        <v>993</v>
       </c>
       <c r="K119" t="s">
-        <v>877</v>
+        <v>994</v>
       </c>
       <c r="L119" t="s">
-        <v>878</v>
+        <v>995</v>
       </c>
       <c r="M119" t="n">
         <v>3</v>
@@ -10896,41 +11722,45 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>878</v>
+        <v>995</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>3943</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>996</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>879</v>
+        <v>997</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>880</v>
+        <v>998</v>
       </c>
       <c r="J120" t="s">
-        <v>881</v>
+        <v>999</v>
       </c>
       <c r="K120" t="s">
-        <v>882</v>
+        <v>1000</v>
       </c>
       <c r="L120" t="s">
-        <v>883</v>
+        <v>1001</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
@@ -10947,47 +11777,51 @@
         <v>0</v>
       </c>
       <c r="W120" t="s">
-        <v>824</v>
+        <v>933</v>
       </c>
       <c r="X120" t="s">
-        <v>825</v>
+        <v>934</v>
       </c>
       <c r="Y120" t="s">
-        <v>884</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>3943</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>990</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>885</v>
+        <v>1003</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>886</v>
+        <v>1004</v>
       </c>
       <c r="J121" t="s">
-        <v>887</v>
+        <v>1005</v>
       </c>
       <c r="K121" t="s">
-        <v>888</v>
+        <v>1006</v>
       </c>
       <c r="L121" t="s">
-        <v>889</v>
+        <v>1007</v>
       </c>
       <c r="M121" t="n">
         <v>3</v>
@@ -11004,47 +11838,51 @@
         <v>0</v>
       </c>
       <c r="W121" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="X121" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="Y121" t="s">
-        <v>890</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>3943</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>990</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>891</v>
+        <v>1009</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>892</v>
+        <v>1010</v>
       </c>
       <c r="J122" t="s">
-        <v>893</v>
+        <v>1011</v>
       </c>
       <c r="K122" t="s">
-        <v>894</v>
+        <v>1012</v>
       </c>
       <c r="L122" t="s">
-        <v>895</v>
+        <v>1013</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
@@ -11061,13 +11899,13 @@
         <v>0</v>
       </c>
       <c r="W122" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="X122" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="Y122" t="s">
-        <v>896</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
